--- a/ui-testsuite/src/main/resources/TestData/ATR_imported_UpdatePipeline_1.xlsx
+++ b/ui-testsuite/src/main/resources/TestData/ATR_imported_UpdatePipeline_1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thuy Quynh\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Workspace\ui-test\ui-testsuite\src\main\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,14 +15,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$FF$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$FF$2</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="232">
   <si>
     <t>IB TYPE</t>
   </si>
@@ -585,9 +585,6 @@
     <t>2016-Q3</t>
   </si>
   <si>
-    <t>OPEN</t>
-  </si>
-  <si>
     <t>TOP CAM</t>
   </si>
   <si>
@@ -600,9 +597,6 @@
     <t>SOUTH PACIFIC</t>
   </si>
   <si>
-    <t>Brasch, Pauline</t>
-  </si>
-  <si>
     <t>ZA</t>
   </si>
   <si>
@@ -693,22 +687,37 @@
     <t>CCV</t>
   </si>
   <si>
-    <t>FFED82DF-595F-45E6-9F56-2E63CA891B5F</t>
-  </si>
-  <si>
-    <t>FF17DB39-5F54-475C-B13B-26F11F8AD812</t>
-  </si>
-  <si>
-    <t>FDE6D116-33DF-4E0E-BDF4-E6896C0EAC4A</t>
-  </si>
-  <si>
-    <t>0001</t>
-  </si>
-  <si>
     <t>WON</t>
   </si>
   <si>
     <t>AU753682835</t>
+  </si>
+  <si>
+    <t>InputDataShipToName</t>
+  </si>
+  <si>
+    <t>7929214536</t>
+  </si>
+  <si>
+    <t>nguyen.van.A</t>
+  </si>
+  <si>
+    <t>3333</t>
+  </si>
+  <si>
+    <t>66046297rt28</t>
+  </si>
+  <si>
+    <t>Shift to SaaS</t>
+  </si>
+  <si>
+    <t>ATR Error - invalid data</t>
+  </si>
+  <si>
+    <t>9661389724</t>
+  </si>
+  <si>
+    <t>0099824812</t>
   </si>
 </sst>
 </file>
@@ -720,7 +729,7 @@
     <numFmt numFmtId="164" formatCode="[$-409]mmmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -750,6 +759,16 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
     </font>
   </fonts>
   <fills count="6">
@@ -812,7 +831,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -895,6 +914,7 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1176,173 +1196,173 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FF4"/>
+  <dimension ref="A1:FG2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="CY1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="DB2" sqref="DB2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="DD1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="DV2" sqref="DV2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="2" max="2" width="13" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="15.140625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="19" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="20.140625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="13.28515625" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="18" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="70.28515625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="18" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="70.140625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="18" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="67.7109375" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="18" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="70.28515625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="18" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="67.7109375" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="12.7109375" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="18" width="39.140625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="19" width="42.42578125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="20" width="35.42578125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="56.85546875" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="35.42578125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="23" max="23" width="31.7109375" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="24" max="24" width="19.42578125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="25" max="25" width="18.5703125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="26" max="26" width="22.42578125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="27" max="27" width="14.7109375" style="12" customWidth="1" outlineLevel="1"/>
-    <col min="28" max="28" width="12.7109375" style="12" customWidth="1" outlineLevel="1"/>
-    <col min="29" max="29" width="10.5703125" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="30" max="30" width="19.140625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="31" max="31" width="11.85546875" style="12" customWidth="1" outlineLevel="1"/>
-    <col min="32" max="32" width="12.7109375" style="12" customWidth="1" outlineLevel="1"/>
-    <col min="33" max="33" width="14.5703125" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="34" max="34" width="19.140625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="35" max="35" width="17.42578125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="36" max="37" width="21" style="10" customWidth="1" outlineLevel="1"/>
-    <col min="38" max="38" width="16.140625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="39" max="39" width="27.42578125" style="10" customWidth="1" outlineLevel="1"/>
-    <col min="40" max="40" width="9.140625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="41" max="41" width="10.7109375" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="42" max="42" width="39.42578125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="43" max="43" width="20.140625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="44" max="44" width="40" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="45" max="45" width="12.5703125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="46" max="46" width="21.140625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="47" max="48" width="9.140625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="49" max="49" width="16.28515625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="50" max="50" width="14.140625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="51" max="51" width="12.28515625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="52" max="52" width="51.7109375" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="53" max="53" width="40.7109375" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="54" max="54" width="32.5703125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="55" max="55" width="10.140625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="56" max="56" width="15.28515625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="57" max="57" width="14.42578125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="58" max="58" width="19" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="59" max="59" width="18.7109375" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="60" max="60" width="19.7109375" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="61" max="61" width="19.42578125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="62" max="62" width="22.5703125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="63" max="64" width="9.140625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="65" max="65" width="12.5703125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="66" max="66" width="12.28515625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="67" max="67" width="14.28515625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="68" max="68" width="13" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="69" max="69" width="19.5703125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="70" max="70" width="22.85546875" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="71" max="71" width="17.28515625" style="12" customWidth="1" outlineLevel="1"/>
-    <col min="72" max="72" width="15.5703125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="73" max="73" width="14.28515625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="74" max="74" width="13.7109375" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="75" max="75" width="14.5703125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="76" max="76" width="11.85546875" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="77" max="77" width="11.5703125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="78" max="78" width="13.85546875" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="79" max="79" width="10.85546875" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="80" max="80" width="22.42578125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="81" max="81" width="31.5703125" style="10" customWidth="1"/>
-    <col min="82" max="82" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="13.5703125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="84" max="84" width="9.140625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="85" max="85" width="10.5703125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="86" max="86" width="14" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="87" max="87" width="22.42578125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="88" max="88" width="27.28515625" style="10" customWidth="1"/>
-    <col min="89" max="89" width="14.42578125" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="90" max="90" width="17.140625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="91" max="91" width="27.28515625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="92" max="92" width="31.140625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="93" max="93" width="51.7109375" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="94" max="94" width="9.140625" style="3" customWidth="1" outlineLevel="1"/>
-    <col min="95" max="95" width="17.140625" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="96" max="96" width="15.5703125" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="97" max="97" width="24" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="98" max="98" width="24.7109375" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="99" max="99" width="19.7109375" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="100" max="100" width="21.42578125" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="101" max="101" width="15.85546875" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="102" max="102" width="155.5703125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="103" max="103" width="41.28515625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="104" max="104" width="12.140625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="105" max="105" width="27.42578125" style="2" customWidth="1"/>
-    <col min="106" max="106" width="15.5703125" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="107" max="107" width="19.85546875" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="108" max="108" width="17" style="12" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="16.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="15.140625" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="111" max="111" width="25.28515625" style="17" customWidth="1" outlineLevel="1"/>
-    <col min="112" max="112" width="22.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="18.42578125" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="114" max="114" width="17.28515625" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="115" max="115" width="16.140625" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="116" max="116" width="14" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="117" max="117" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="12" style="12" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="14.5703125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="120" max="120" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="16.85546875" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="123" max="123" width="13.28515625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="124" max="124" width="37.28515625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="125" max="125" width="10.5703125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="126" max="126" width="15.140625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="127" max="127" width="25.7109375" style="10" customWidth="1"/>
-    <col min="128" max="128" width="22.7109375" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="129" max="129" width="29" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="130" max="130" width="23.7109375" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="131" max="131" width="16.42578125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="132" max="132" width="23.5703125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="133" max="133" width="20.5703125" style="24" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="27.42578125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="135" max="135" width="25.85546875" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="136" max="136" width="12" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="137" max="137" width="15.5703125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="138" max="138" width="20.7109375" style="21" customWidth="1" outlineLevel="1"/>
-    <col min="139" max="139" width="24.5703125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="140" max="140" width="14.5703125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="141" max="141" width="19" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="142" max="144" width="21.140625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="145" max="145" width="26.5703125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="146" max="146" width="20.5703125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="147" max="147" width="26.28515625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="148" max="148" width="23.85546875" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="149" max="149" width="22.7109375" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="150" max="150" width="32.5703125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="151" max="151" width="15.140625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="152" max="152" width="13.28515625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="153" max="153" width="28" style="12" customWidth="1" outlineLevel="1"/>
-    <col min="154" max="154" width="28.7109375" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="155" max="155" width="18.5703125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="156" max="156" width="11.7109375" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="157" max="157" width="11.42578125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="158" max="158" width="17.5703125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="159" max="159" width="16.28515625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="160" max="160" width="16.140625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="161" max="161" width="14.5703125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="162" max="162" width="16.5703125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="163" max="163" width="9.140625" style="1" customWidth="1"/>
-    <col min="164" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="9.42578125" collapsed="true" outlineLevel="1"/>
+    <col min="2" max="2" customWidth="true" style="1" width="13.0" collapsed="true" outlineLevel="1"/>
+    <col min="3" max="3" customWidth="true" style="1" width="15.140625" collapsed="true" outlineLevel="1"/>
+    <col min="4" max="4" customWidth="true" style="1" width="19.0" collapsed="true" outlineLevel="1"/>
+    <col min="5" max="5" customWidth="true" style="1" width="20.140625" collapsed="true" outlineLevel="1"/>
+    <col min="6" max="6" customWidth="true" style="2" width="13.28515625" collapsed="true" outlineLevel="1"/>
+    <col min="7" max="7" customWidth="true" style="1" width="18.0" collapsed="true" outlineLevel="1"/>
+    <col min="8" max="8" customWidth="true" style="1" width="70.28515625" collapsed="true" outlineLevel="1"/>
+    <col min="9" max="9" customWidth="true" style="1" width="18.0" collapsed="true" outlineLevel="1"/>
+    <col min="10" max="10" customWidth="true" style="1" width="70.140625" collapsed="true" outlineLevel="1"/>
+    <col min="11" max="11" customWidth="true" style="1" width="18.0" collapsed="true" outlineLevel="1"/>
+    <col min="12" max="12" customWidth="true" style="1" width="67.7109375" collapsed="true" outlineLevel="1"/>
+    <col min="13" max="13" customWidth="true" style="1" width="18.0" collapsed="true" outlineLevel="1"/>
+    <col min="14" max="14" customWidth="true" style="1" width="70.28515625" collapsed="true" outlineLevel="1"/>
+    <col min="15" max="15" customWidth="true" style="1" width="18.0" collapsed="true" outlineLevel="1"/>
+    <col min="16" max="16" customWidth="true" style="1" width="67.7109375" collapsed="true" outlineLevel="1"/>
+    <col min="17" max="17" customWidth="true" style="1" width="12.7109375" collapsed="true" outlineLevel="1"/>
+    <col min="18" max="18" customWidth="true" style="1" width="39.140625" collapsed="true" outlineLevel="1"/>
+    <col min="19" max="19" customWidth="true" style="1" width="42.42578125" collapsed="true" outlineLevel="1"/>
+    <col min="20" max="20" customWidth="true" style="1" width="35.42578125" collapsed="true" outlineLevel="1"/>
+    <col min="21" max="21" customWidth="true" style="1" width="56.85546875" collapsed="true" outlineLevel="1"/>
+    <col min="22" max="22" customWidth="true" style="1" width="35.42578125" collapsed="true" outlineLevel="1"/>
+    <col min="23" max="23" customWidth="true" style="1" width="31.7109375" collapsed="true" outlineLevel="1"/>
+    <col min="24" max="24" customWidth="true" style="1" width="19.42578125" collapsed="true" outlineLevel="1"/>
+    <col min="25" max="25" customWidth="true" style="1" width="18.5703125" collapsed="true" outlineLevel="1"/>
+    <col min="26" max="26" customWidth="true" style="1" width="22.42578125" collapsed="true" outlineLevel="1"/>
+    <col min="27" max="27" customWidth="true" style="12" width="14.7109375" collapsed="true" outlineLevel="1"/>
+    <col min="28" max="28" customWidth="true" style="12" width="12.7109375" collapsed="true" outlineLevel="1"/>
+    <col min="29" max="29" customWidth="true" style="2" width="10.5703125" collapsed="true" outlineLevel="1"/>
+    <col min="30" max="30" customWidth="true" style="1" width="19.140625" collapsed="true" outlineLevel="1"/>
+    <col min="31" max="31" customWidth="true" style="12" width="11.85546875" collapsed="true" outlineLevel="1"/>
+    <col min="32" max="32" customWidth="true" style="12" width="12.7109375" collapsed="true" outlineLevel="1"/>
+    <col min="33" max="33" customWidth="true" style="2" width="14.5703125" collapsed="true" outlineLevel="1"/>
+    <col min="34" max="34" customWidth="true" style="1" width="19.140625" collapsed="true" outlineLevel="1"/>
+    <col min="35" max="35" customWidth="true" style="1" width="17.42578125" collapsed="true" outlineLevel="1"/>
+    <col min="36" max="37" customWidth="true" style="10" width="21.0" collapsed="true" outlineLevel="1"/>
+    <col min="38" max="38" customWidth="true" style="1" width="16.140625" collapsed="true" outlineLevel="1"/>
+    <col min="39" max="39" customWidth="true" style="10" width="27.42578125" collapsed="true" outlineLevel="1"/>
+    <col min="40" max="40" customWidth="true" style="1" width="9.140625" collapsed="true" outlineLevel="1"/>
+    <col min="41" max="41" customWidth="true" style="1" width="10.7109375" collapsed="true" outlineLevel="1"/>
+    <col min="42" max="42" customWidth="true" style="1" width="39.42578125" collapsed="true" outlineLevel="1"/>
+    <col min="43" max="43" customWidth="true" style="1" width="20.140625" collapsed="true" outlineLevel="1"/>
+    <col min="44" max="44" customWidth="true" style="1" width="40.0" collapsed="true" outlineLevel="1"/>
+    <col min="45" max="45" customWidth="true" style="1" width="12.5703125" collapsed="true" outlineLevel="1"/>
+    <col min="46" max="46" customWidth="true" style="1" width="21.140625" collapsed="true" outlineLevel="1"/>
+    <col min="47" max="48" customWidth="true" style="1" width="9.140625" collapsed="true" outlineLevel="1"/>
+    <col min="49" max="49" customWidth="true" style="1" width="16.28515625" collapsed="true" outlineLevel="1"/>
+    <col min="50" max="50" customWidth="true" style="1" width="14.140625" collapsed="true" outlineLevel="1"/>
+    <col min="51" max="51" customWidth="true" style="1" width="12.28515625" collapsed="true" outlineLevel="1"/>
+    <col min="52" max="52" customWidth="true" style="1" width="51.7109375" collapsed="true" outlineLevel="1"/>
+    <col min="53" max="53" customWidth="true" style="1" width="40.7109375" collapsed="true" outlineLevel="1"/>
+    <col min="54" max="54" customWidth="true" style="1" width="32.5703125" collapsed="true" outlineLevel="1"/>
+    <col min="55" max="55" customWidth="true" style="1" width="10.140625" collapsed="true" outlineLevel="1"/>
+    <col min="56" max="56" customWidth="true" style="1" width="15.28515625" collapsed="true" outlineLevel="1"/>
+    <col min="57" max="57" customWidth="true" style="1" width="14.42578125" collapsed="true" outlineLevel="1"/>
+    <col min="58" max="58" customWidth="true" style="1" width="19.0" collapsed="true" outlineLevel="1"/>
+    <col min="59" max="59" customWidth="true" style="1" width="18.7109375" collapsed="true" outlineLevel="1"/>
+    <col min="60" max="60" customWidth="true" style="1" width="19.7109375" collapsed="true" outlineLevel="1"/>
+    <col min="61" max="61" customWidth="true" style="1" width="19.42578125" collapsed="true" outlineLevel="1"/>
+    <col min="62" max="62" customWidth="true" style="1" width="22.5703125" collapsed="true" outlineLevel="1"/>
+    <col min="63" max="64" customWidth="true" style="1" width="9.140625" collapsed="true" outlineLevel="1"/>
+    <col min="65" max="65" customWidth="true" style="1" width="12.5703125" collapsed="true" outlineLevel="1"/>
+    <col min="66" max="66" customWidth="true" style="1" width="12.28515625" collapsed="true" outlineLevel="1"/>
+    <col min="67" max="67" customWidth="true" style="1" width="14.28515625" collapsed="true" outlineLevel="1"/>
+    <col min="68" max="68" customWidth="true" style="1" width="13.0" collapsed="true" outlineLevel="1"/>
+    <col min="69" max="69" customWidth="true" style="1" width="19.5703125" collapsed="true" outlineLevel="1"/>
+    <col min="70" max="70" customWidth="true" style="1" width="22.85546875" collapsed="true" outlineLevel="1"/>
+    <col min="71" max="71" customWidth="true" style="12" width="17.28515625" collapsed="true" outlineLevel="1"/>
+    <col min="72" max="72" customWidth="true" style="1" width="15.5703125" collapsed="true" outlineLevel="1"/>
+    <col min="73" max="73" customWidth="true" style="1" width="14.28515625" collapsed="true" outlineLevel="1"/>
+    <col min="74" max="74" customWidth="true" style="1" width="13.7109375" collapsed="true" outlineLevel="1"/>
+    <col min="75" max="75" customWidth="true" style="1" width="14.5703125" collapsed="true" outlineLevel="1"/>
+    <col min="76" max="76" customWidth="true" style="1" width="11.85546875" collapsed="true" outlineLevel="1"/>
+    <col min="77" max="77" customWidth="true" style="1" width="11.5703125" collapsed="true" outlineLevel="1"/>
+    <col min="78" max="78" customWidth="true" style="1" width="13.85546875" collapsed="true" outlineLevel="1"/>
+    <col min="79" max="79" customWidth="true" style="1" width="10.85546875" collapsed="true" outlineLevel="1"/>
+    <col min="80" max="80" customWidth="true" style="1" width="22.42578125" collapsed="true" outlineLevel="1"/>
+    <col min="81" max="81" customWidth="true" style="10" width="31.5703125" collapsed="true"/>
+    <col min="82" max="82" bestFit="true" customWidth="true" style="1" width="21.5703125" collapsed="true"/>
+    <col min="83" max="83" customWidth="true" style="1" width="13.5703125" collapsed="true" outlineLevel="1"/>
+    <col min="84" max="84" customWidth="true" style="1" width="9.140625" collapsed="true" outlineLevel="1"/>
+    <col min="85" max="85" customWidth="true" style="1" width="10.5703125" collapsed="true" outlineLevel="1"/>
+    <col min="86" max="86" customWidth="true" style="1" width="14.0" collapsed="true" outlineLevel="1"/>
+    <col min="87" max="87" customWidth="true" style="1" width="22.42578125" collapsed="true" outlineLevel="1"/>
+    <col min="88" max="88" customWidth="true" style="10" width="27.28515625" collapsed="true"/>
+    <col min="89" max="89" customWidth="true" style="2" width="14.42578125" collapsed="true" outlineLevel="1"/>
+    <col min="90" max="90" customWidth="true" style="1" width="17.140625" collapsed="true" outlineLevel="1"/>
+    <col min="91" max="91" customWidth="true" style="1" width="27.28515625" collapsed="true" outlineLevel="1"/>
+    <col min="92" max="92" customWidth="true" style="1" width="31.140625" collapsed="true" outlineLevel="1"/>
+    <col min="93" max="93" customWidth="true" style="1" width="51.7109375" collapsed="true" outlineLevel="1"/>
+    <col min="94" max="94" customWidth="true" style="3" width="9.140625" collapsed="true" outlineLevel="1"/>
+    <col min="95" max="95" customWidth="true" style="4" width="17.140625" collapsed="true" outlineLevel="1"/>
+    <col min="96" max="96" customWidth="true" style="4" width="15.5703125" collapsed="true" outlineLevel="1"/>
+    <col min="97" max="97" customWidth="true" style="1" width="24.0" collapsed="true" outlineLevel="1"/>
+    <col min="98" max="98" customWidth="true" style="1" width="24.7109375" collapsed="true" outlineLevel="1"/>
+    <col min="99" max="99" customWidth="true" style="4" width="19.7109375" collapsed="true" outlineLevel="1"/>
+    <col min="100" max="100" customWidth="true" style="4" width="21.42578125" collapsed="true" outlineLevel="1"/>
+    <col min="101" max="101" customWidth="true" style="1" width="15.85546875" collapsed="true" outlineLevel="1"/>
+    <col min="102" max="102" customWidth="true" style="1" width="155.5703125" collapsed="true" outlineLevel="1"/>
+    <col min="103" max="103" customWidth="true" style="1" width="41.28515625" collapsed="true" outlineLevel="1"/>
+    <col min="104" max="104" customWidth="true" style="1" width="12.140625" collapsed="true" outlineLevel="1"/>
+    <col min="105" max="105" customWidth="true" style="2" width="27.42578125" collapsed="true"/>
+    <col min="106" max="106" customWidth="true" style="2" width="15.5703125" collapsed="true" outlineLevel="1"/>
+    <col min="107" max="107" customWidth="true" style="2" width="19.85546875" collapsed="true" outlineLevel="1"/>
+    <col min="108" max="108" bestFit="true" customWidth="true" style="12" width="17.0" collapsed="true"/>
+    <col min="109" max="109" bestFit="true" customWidth="true" style="12" width="16.140625" collapsed="true"/>
+    <col min="110" max="110" customWidth="true" style="2" width="15.140625" collapsed="true" outlineLevel="1"/>
+    <col min="111" max="111" customWidth="true" style="17" width="25.28515625" collapsed="true" outlineLevel="1"/>
+    <col min="112" max="112" bestFit="true" customWidth="true" style="17" width="22.5703125" collapsed="true"/>
+    <col min="113" max="113" customWidth="true" style="2" width="18.42578125" collapsed="true" outlineLevel="1"/>
+    <col min="114" max="114" customWidth="true" style="2" width="17.28515625" collapsed="true" outlineLevel="1"/>
+    <col min="115" max="115" customWidth="true" style="2" width="16.140625" collapsed="true" outlineLevel="1"/>
+    <col min="116" max="116" customWidth="true" style="1" width="14.0" collapsed="true" outlineLevel="1"/>
+    <col min="117" max="117" bestFit="true" customWidth="true" style="1" width="15.85546875" collapsed="true"/>
+    <col min="118" max="118" bestFit="true" customWidth="true" style="12" width="12.0" collapsed="true"/>
+    <col min="119" max="119" customWidth="true" style="1" width="14.5703125" collapsed="true" outlineLevel="1"/>
+    <col min="120" max="120" bestFit="true" customWidth="true" style="1" width="9.140625" collapsed="true"/>
+    <col min="121" max="121" bestFit="true" customWidth="true" style="1" width="11.0" collapsed="true"/>
+    <col min="122" max="122" customWidth="true" style="1" width="16.85546875" collapsed="true" outlineLevel="1"/>
+    <col min="123" max="123" customWidth="true" style="1" width="13.28515625" collapsed="true" outlineLevel="1"/>
+    <col min="124" max="124" customWidth="true" style="1" width="37.28515625" collapsed="true" outlineLevel="1"/>
+    <col min="125" max="125" customWidth="true" style="1" width="10.5703125" collapsed="true" outlineLevel="1"/>
+    <col min="126" max="126" customWidth="true" style="1" width="15.140625" collapsed="true" outlineLevel="1"/>
+    <col min="127" max="127" customWidth="true" style="10" width="25.7109375" collapsed="true"/>
+    <col min="128" max="128" customWidth="true" style="1" width="22.7109375" collapsed="true" outlineLevel="1"/>
+    <col min="129" max="129" customWidth="true" style="1" width="29.0" collapsed="true" outlineLevel="1"/>
+    <col min="130" max="130" customWidth="true" style="1" width="23.7109375" collapsed="true" outlineLevel="1"/>
+    <col min="131" max="131" customWidth="true" style="1" width="16.42578125" collapsed="true" outlineLevel="1"/>
+    <col min="132" max="132" customWidth="true" style="1" width="23.5703125" collapsed="true" outlineLevel="1"/>
+    <col min="133" max="133" bestFit="true" customWidth="true" style="24" width="20.5703125" collapsed="true"/>
+    <col min="134" max="134" customWidth="true" style="1" width="27.42578125" collapsed="true" outlineLevel="1"/>
+    <col min="135" max="135" customWidth="true" style="1" width="25.85546875" collapsed="true" outlineLevel="1"/>
+    <col min="136" max="136" customWidth="true" style="1" width="12.0" collapsed="true" outlineLevel="1"/>
+    <col min="137" max="137" customWidth="true" style="1" width="15.5703125" collapsed="true" outlineLevel="1"/>
+    <col min="138" max="138" customWidth="true" style="21" width="20.7109375" collapsed="true" outlineLevel="1"/>
+    <col min="139" max="139" customWidth="true" style="1" width="24.5703125" collapsed="true" outlineLevel="1"/>
+    <col min="140" max="140" customWidth="true" style="1" width="14.5703125" collapsed="true" outlineLevel="1"/>
+    <col min="141" max="141" customWidth="true" style="1" width="19.0" collapsed="true" outlineLevel="1"/>
+    <col min="142" max="144" customWidth="true" style="1" width="21.140625" collapsed="true" outlineLevel="1"/>
+    <col min="145" max="145" customWidth="true" style="1" width="26.5703125" collapsed="true" outlineLevel="1"/>
+    <col min="146" max="146" customWidth="true" style="1" width="20.5703125" collapsed="true" outlineLevel="1"/>
+    <col min="147" max="147" customWidth="true" style="1" width="26.28515625" collapsed="true" outlineLevel="1"/>
+    <col min="148" max="148" customWidth="true" style="1" width="23.85546875" collapsed="true" outlineLevel="1"/>
+    <col min="149" max="149" customWidth="true" style="1" width="22.7109375" collapsed="true" outlineLevel="1"/>
+    <col min="150" max="150" customWidth="true" style="1" width="32.5703125" collapsed="true" outlineLevel="1"/>
+    <col min="151" max="151" customWidth="true" style="1" width="15.140625" collapsed="true" outlineLevel="1"/>
+    <col min="152" max="152" customWidth="true" style="1" width="13.28515625" collapsed="true" outlineLevel="1"/>
+    <col min="153" max="153" customWidth="true" style="12" width="28.0" collapsed="true" outlineLevel="1"/>
+    <col min="154" max="154" customWidth="true" style="1" width="28.7109375" collapsed="true" outlineLevel="1"/>
+    <col min="155" max="155" customWidth="true" style="1" width="18.5703125" collapsed="true" outlineLevel="1"/>
+    <col min="156" max="156" customWidth="true" style="1" width="11.7109375" collapsed="true" outlineLevel="1"/>
+    <col min="157" max="157" customWidth="true" style="1" width="11.42578125" collapsed="true" outlineLevel="1"/>
+    <col min="158" max="158" customWidth="true" style="1" width="17.5703125" collapsed="true" outlineLevel="1"/>
+    <col min="159" max="159" customWidth="true" style="1" width="16.28515625" collapsed="true" outlineLevel="1"/>
+    <col min="160" max="160" customWidth="true" style="1" width="16.140625" collapsed="true" outlineLevel="1"/>
+    <col min="161" max="161" customWidth="true" style="1" width="14.5703125" collapsed="true" outlineLevel="1"/>
+    <col min="162" max="162" customWidth="true" style="1" width="16.5703125" collapsed="true" outlineLevel="1"/>
+    <col min="163" max="163" customWidth="true" style="1" width="9.140625" collapsed="true"/>
+    <col min="164" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:162" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1838,67 +1858,70 @@
         <v>177</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>191</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="F2" s="2">
-        <v>2100000065</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="M2" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="P2" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="R2" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>206</v>
       </c>
       <c r="AA2" s="12">
         <v>42209</v>
@@ -1919,25 +1942,25 @@
         <v>43305</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AJ2" s="10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AK2" s="10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AL2" s="1" t="s">
         <v>180</v>
       </c>
       <c r="AM2" s="10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AN2" s="1" t="s">
         <v>181</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AS2" s="1" t="s">
         <v>182</v>
@@ -1952,46 +1975,46 @@
         <v>164</v>
       </c>
       <c r="AX2" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="AY2" s="1" t="s">
+      <c r="BA2" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="AZ2" s="1" t="s">
+      <c r="BB2" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="BA2" s="1" t="s">
+      <c r="BC2" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="BD2" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="BB2" s="1" t="s">
+      <c r="BF2" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="BC2" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="BD2" s="1" t="s">
+      <c r="BG2" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="BF2" s="1" t="s">
+      <c r="BI2" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="BG2" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="BI2" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="BO2" s="1" t="s">
         <v>165</v>
       </c>
       <c r="BP2" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="BQ2" s="1" t="s">
         <v>166</v>
       </c>
       <c r="BR2" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="BS2" s="12">
         <v>42575</v>
@@ -2018,15 +2041,15 @@
         <v>169</v>
       </c>
       <c r="CB2" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="CC2" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="CD2" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="CE2" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="CD2" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="CE2" t="s">
         <v>226</v>
       </c>
       <c r="CF2" s="1" t="s">
@@ -2039,10 +2062,10 @@
         <v>170</v>
       </c>
       <c r="CI2" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="CJ2" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="CL2" s="1" t="s">
         <v>179</v>
@@ -2065,14 +2088,11 @@
       <c r="CW2" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="CY2" s="1" t="s">
-        <v>223</v>
-      </c>
       <c r="CZ2" s="1" t="s">
         <v>173</v>
       </c>
       <c r="DA2" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="DC2" s="2" t="s">
         <v>171</v>
@@ -2093,7 +2113,7 @@
         <v>1477726.8</v>
       </c>
       <c r="DK2" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="DL2" s="1" t="s">
         <v>184</v>
@@ -2119,11 +2139,17 @@
       <c r="DS2" s="1" t="s">
         <v>174</v>
       </c>
+      <c r="DT2" t="s">
+        <v>228</v>
+      </c>
       <c r="DU2" s="1" t="s">
         <v>174</v>
       </c>
+      <c r="DV2" t="s">
+        <v>229</v>
+      </c>
       <c r="DW2" s="27" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="DZ2" s="1">
         <v>0</v>
@@ -2150,7 +2176,7 @@
         <v>42582</v>
       </c>
       <c r="EI2" s="1" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="EJ2" s="1" t="s">
         <v>175</v>
@@ -2177,741 +2203,23 @@
         <v>176</v>
       </c>
       <c r="EX2" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="EY2" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="EZ2" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="FD2" s="1" t="s">
         <v>174</v>
       </c>
       <c r="FE2" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="3" spans="1:162" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="F3" s="2">
-        <v>2100000075</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="AA3" s="12">
-        <v>42209</v>
-      </c>
-      <c r="AB3" s="12">
-        <v>43304</v>
-      </c>
-      <c r="AC3" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AE3" s="12">
-        <v>36494</v>
-      </c>
-      <c r="AF3" s="12">
-        <v>43305</v>
-      </c>
-      <c r="AG3" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="AJ3" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="AK3" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="AM3" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="AR3" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="AS3" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="AT3" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AU3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AW3" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="AX3" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AY3" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="AZ3" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="BA3" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="BB3" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="BC3" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="BD3" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="BF3" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="BG3" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="BI3" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="BO3" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="BP3" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="BQ3" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="BR3" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="BS3" s="12">
-        <v>42575</v>
-      </c>
-      <c r="BT3" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="BV3" s="1">
-        <v>7</v>
-      </c>
-      <c r="BW3" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="BX3" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="BY3" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="BZ3" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="CA3" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="CB3" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="CC3" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="CD3" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="CE3" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="CF3" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="CG3" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="CH3" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="CI3" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="CJ3" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="CL3" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="CP3" s="3">
-        <v>1.4065000000000001</v>
-      </c>
-      <c r="CQ3" s="4">
-        <v>1477726.8</v>
-      </c>
-      <c r="CR3" s="4">
-        <v>1050641.1660149307</v>
-      </c>
-      <c r="CU3" s="4">
-        <v>1050641.1660149307</v>
-      </c>
-      <c r="CV3" s="4">
-        <v>1477726.8</v>
-      </c>
-      <c r="CW3" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="CY3" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="CZ3" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="DA3" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="DC3" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="DF3" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="DG3" s="17">
-        <v>0</v>
-      </c>
-      <c r="DH3" s="17">
-        <v>1477726.8</v>
-      </c>
-      <c r="DI3" s="2">
-        <v>1477726.8</v>
-      </c>
-      <c r="DJ3" s="2">
-        <v>1477726.8</v>
-      </c>
-      <c r="DK3" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="DL3" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="DM3" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="DN3" s="12">
-        <v>42575</v>
-      </c>
-      <c r="DO3" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="DP3" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="DQ3" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="DR3" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="DS3" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="DU3" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="DW3" s="27" t="s">
-        <v>222</v>
-      </c>
-      <c r="DZ3" s="1">
-        <v>0</v>
-      </c>
-      <c r="EA3" s="1">
-        <v>1055097.1040000001</v>
-      </c>
-      <c r="EB3" s="1">
-        <v>1055097.1040000001</v>
-      </c>
-      <c r="EC3" s="24">
-        <v>1055097.1040155366</v>
-      </c>
-      <c r="ED3" s="1">
-        <v>1477726.8</v>
-      </c>
-      <c r="EE3" s="1">
-        <v>1055097.1040000001</v>
-      </c>
-      <c r="EF3" s="1">
-        <v>1.40056</v>
-      </c>
-      <c r="EH3" s="21">
-        <v>42582</v>
-      </c>
-      <c r="EI3" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="EJ3" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="EK3" s="1">
-        <v>0</v>
-      </c>
-      <c r="EL3" s="1">
-        <v>0</v>
-      </c>
-      <c r="EM3" s="1">
-        <v>0</v>
-      </c>
-      <c r="EN3" s="1">
-        <v>0</v>
-      </c>
-      <c r="EO3" s="1">
-        <v>0</v>
-      </c>
-      <c r="EV3" s="1">
-        <v>1629</v>
-      </c>
-      <c r="EW3" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="EX3" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="EY3" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="EZ3" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="FD3" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="FE3" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="4" spans="1:162" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="F4" s="2">
-        <v>2100000085</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="AA4" s="12">
-        <v>42209</v>
-      </c>
-      <c r="AB4" s="12">
-        <v>43304</v>
-      </c>
-      <c r="AC4" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD4" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AE4" s="12">
-        <v>36494</v>
-      </c>
-      <c r="AF4" s="12">
-        <v>43305</v>
-      </c>
-      <c r="AG4" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="AJ4" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="AK4" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="AL4" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="AM4" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="AN4" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="AR4" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="AS4" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="AT4" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AU4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AW4" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="AX4" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AY4" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="AZ4" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="BA4" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="BB4" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="BC4" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="BD4" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="BF4" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="BG4" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="BI4" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="BO4" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="BP4" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="BQ4" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="BR4" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="BS4" s="12">
-        <v>42575</v>
-      </c>
-      <c r="BT4" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="BV4" s="1">
-        <v>7</v>
-      </c>
-      <c r="BW4" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="BX4" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="BY4" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="BZ4" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="CA4" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="CB4" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="CC4" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="CD4" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="CE4" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="CF4" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="CG4" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="CH4" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="CI4" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="CJ4" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="CL4" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="CP4" s="3">
-        <v>1.4065000000000001</v>
-      </c>
-      <c r="CQ4" s="4">
-        <v>1477726.8</v>
-      </c>
-      <c r="CR4" s="4">
-        <v>1050641.1660149307</v>
-      </c>
-      <c r="CU4" s="4">
-        <v>1050641.1660149307</v>
-      </c>
-      <c r="CV4" s="4">
-        <v>1477726.8</v>
-      </c>
-      <c r="CW4" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="CY4" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="CZ4" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="DA4" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="DC4" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="DF4" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="DG4" s="17">
-        <v>0</v>
-      </c>
-      <c r="DH4" s="17">
-        <v>1477726.8</v>
-      </c>
-      <c r="DI4" s="2">
-        <v>1477726.8</v>
-      </c>
-      <c r="DJ4" s="2">
-        <v>1477726.8</v>
-      </c>
-      <c r="DK4" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="DL4" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="DM4" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="DN4" s="12">
-        <v>42575</v>
-      </c>
-      <c r="DO4" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="DP4" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="DQ4" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="DR4" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="DS4" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="DU4" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="DW4" s="27" t="s">
-        <v>222</v>
-      </c>
-      <c r="DZ4" s="1">
-        <v>0</v>
-      </c>
-      <c r="EA4" s="1">
-        <v>1055097.1040000001</v>
-      </c>
-      <c r="EB4" s="1">
-        <v>1055097.1040000001</v>
-      </c>
-      <c r="EC4" s="24">
-        <v>1055097.1040155366</v>
-      </c>
-      <c r="ED4" s="1">
-        <v>1477726.8</v>
-      </c>
-      <c r="EE4" s="1">
-        <v>1055097.1040000001</v>
-      </c>
-      <c r="EF4" s="1">
-        <v>1.40056</v>
-      </c>
-      <c r="EH4" s="21">
-        <v>42582</v>
-      </c>
-      <c r="EI4" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="EJ4" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="EK4" s="1">
-        <v>0</v>
-      </c>
-      <c r="EL4" s="1">
-        <v>0</v>
-      </c>
-      <c r="EM4" s="1">
-        <v>0</v>
-      </c>
-      <c r="EN4" s="1">
-        <v>0</v>
-      </c>
-      <c r="EO4" s="1">
-        <v>0</v>
-      </c>
-      <c r="EV4" s="1">
-        <v>1629</v>
-      </c>
-      <c r="EW4" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="EX4" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="EY4" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="EZ4" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="FD4" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="FE4" s="1" t="s">
-        <v>189</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:FF4"/>
+  <autoFilter ref="A1:FF2"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/ui-testsuite/src/main/resources/TestData/ATR_imported_UpdatePipeline_1.xlsx
+++ b/ui-testsuite/src/main/resources/TestData/ATR_imported_UpdatePipeline_1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Workspace\ui-test\ui-testsuite\src\main\resources\TestData\"/>
     </mc:Choice>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="231">
   <si>
     <t>IB TYPE</t>
   </si>
@@ -705,19 +705,16 @@
     <t>3333</t>
   </si>
   <si>
-    <t>66046297rt28</t>
-  </si>
-  <si>
     <t>Shift to SaaS</t>
   </si>
   <si>
     <t>ATR Error - invalid data</t>
   </si>
   <si>
-    <t>9661389724</t>
-  </si>
-  <si>
-    <t>0099824812</t>
+    <t>3146820256</t>
+  </si>
+  <si>
+    <t>EOT</t>
   </si>
 </sst>
 </file>
@@ -729,7 +726,7 @@
     <numFmt numFmtId="164" formatCode="[$-409]mmmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -759,16 +756,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="11.0"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="11.0"/>
-      <charset val="0"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1196,173 +1183,173 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FG2"/>
+  <dimension ref="A1:FF2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="DD1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="DV2" sqref="DV2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AQ1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AU2" sqref="AU2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="9.42578125" collapsed="true" outlineLevel="1"/>
-    <col min="2" max="2" customWidth="true" style="1" width="13.0" collapsed="true" outlineLevel="1"/>
-    <col min="3" max="3" customWidth="true" style="1" width="15.140625" collapsed="true" outlineLevel="1"/>
-    <col min="4" max="4" customWidth="true" style="1" width="19.0" collapsed="true" outlineLevel="1"/>
-    <col min="5" max="5" customWidth="true" style="1" width="20.140625" collapsed="true" outlineLevel="1"/>
-    <col min="6" max="6" customWidth="true" style="2" width="13.28515625" collapsed="true" outlineLevel="1"/>
-    <col min="7" max="7" customWidth="true" style="1" width="18.0" collapsed="true" outlineLevel="1"/>
-    <col min="8" max="8" customWidth="true" style="1" width="70.28515625" collapsed="true" outlineLevel="1"/>
-    <col min="9" max="9" customWidth="true" style="1" width="18.0" collapsed="true" outlineLevel="1"/>
-    <col min="10" max="10" customWidth="true" style="1" width="70.140625" collapsed="true" outlineLevel="1"/>
-    <col min="11" max="11" customWidth="true" style="1" width="18.0" collapsed="true" outlineLevel="1"/>
-    <col min="12" max="12" customWidth="true" style="1" width="67.7109375" collapsed="true" outlineLevel="1"/>
-    <col min="13" max="13" customWidth="true" style="1" width="18.0" collapsed="true" outlineLevel="1"/>
-    <col min="14" max="14" customWidth="true" style="1" width="70.28515625" collapsed="true" outlineLevel="1"/>
-    <col min="15" max="15" customWidth="true" style="1" width="18.0" collapsed="true" outlineLevel="1"/>
-    <col min="16" max="16" customWidth="true" style="1" width="67.7109375" collapsed="true" outlineLevel="1"/>
-    <col min="17" max="17" customWidth="true" style="1" width="12.7109375" collapsed="true" outlineLevel="1"/>
-    <col min="18" max="18" customWidth="true" style="1" width="39.140625" collapsed="true" outlineLevel="1"/>
-    <col min="19" max="19" customWidth="true" style="1" width="42.42578125" collapsed="true" outlineLevel="1"/>
-    <col min="20" max="20" customWidth="true" style="1" width="35.42578125" collapsed="true" outlineLevel="1"/>
-    <col min="21" max="21" customWidth="true" style="1" width="56.85546875" collapsed="true" outlineLevel="1"/>
-    <col min="22" max="22" customWidth="true" style="1" width="35.42578125" collapsed="true" outlineLevel="1"/>
-    <col min="23" max="23" customWidth="true" style="1" width="31.7109375" collapsed="true" outlineLevel="1"/>
-    <col min="24" max="24" customWidth="true" style="1" width="19.42578125" collapsed="true" outlineLevel="1"/>
-    <col min="25" max="25" customWidth="true" style="1" width="18.5703125" collapsed="true" outlineLevel="1"/>
-    <col min="26" max="26" customWidth="true" style="1" width="22.42578125" collapsed="true" outlineLevel="1"/>
-    <col min="27" max="27" customWidth="true" style="12" width="14.7109375" collapsed="true" outlineLevel="1"/>
-    <col min="28" max="28" customWidth="true" style="12" width="12.7109375" collapsed="true" outlineLevel="1"/>
-    <col min="29" max="29" customWidth="true" style="2" width="10.5703125" collapsed="true" outlineLevel="1"/>
-    <col min="30" max="30" customWidth="true" style="1" width="19.140625" collapsed="true" outlineLevel="1"/>
-    <col min="31" max="31" customWidth="true" style="12" width="11.85546875" collapsed="true" outlineLevel="1"/>
-    <col min="32" max="32" customWidth="true" style="12" width="12.7109375" collapsed="true" outlineLevel="1"/>
-    <col min="33" max="33" customWidth="true" style="2" width="14.5703125" collapsed="true" outlineLevel="1"/>
-    <col min="34" max="34" customWidth="true" style="1" width="19.140625" collapsed="true" outlineLevel="1"/>
-    <col min="35" max="35" customWidth="true" style="1" width="17.42578125" collapsed="true" outlineLevel="1"/>
-    <col min="36" max="37" customWidth="true" style="10" width="21.0" collapsed="true" outlineLevel="1"/>
-    <col min="38" max="38" customWidth="true" style="1" width="16.140625" collapsed="true" outlineLevel="1"/>
-    <col min="39" max="39" customWidth="true" style="10" width="27.42578125" collapsed="true" outlineLevel="1"/>
-    <col min="40" max="40" customWidth="true" style="1" width="9.140625" collapsed="true" outlineLevel="1"/>
-    <col min="41" max="41" customWidth="true" style="1" width="10.7109375" collapsed="true" outlineLevel="1"/>
-    <col min="42" max="42" customWidth="true" style="1" width="39.42578125" collapsed="true" outlineLevel="1"/>
-    <col min="43" max="43" customWidth="true" style="1" width="20.140625" collapsed="true" outlineLevel="1"/>
-    <col min="44" max="44" customWidth="true" style="1" width="40.0" collapsed="true" outlineLevel="1"/>
-    <col min="45" max="45" customWidth="true" style="1" width="12.5703125" collapsed="true" outlineLevel="1"/>
-    <col min="46" max="46" customWidth="true" style="1" width="21.140625" collapsed="true" outlineLevel="1"/>
-    <col min="47" max="48" customWidth="true" style="1" width="9.140625" collapsed="true" outlineLevel="1"/>
-    <col min="49" max="49" customWidth="true" style="1" width="16.28515625" collapsed="true" outlineLevel="1"/>
-    <col min="50" max="50" customWidth="true" style="1" width="14.140625" collapsed="true" outlineLevel="1"/>
-    <col min="51" max="51" customWidth="true" style="1" width="12.28515625" collapsed="true" outlineLevel="1"/>
-    <col min="52" max="52" customWidth="true" style="1" width="51.7109375" collapsed="true" outlineLevel="1"/>
-    <col min="53" max="53" customWidth="true" style="1" width="40.7109375" collapsed="true" outlineLevel="1"/>
-    <col min="54" max="54" customWidth="true" style="1" width="32.5703125" collapsed="true" outlineLevel="1"/>
-    <col min="55" max="55" customWidth="true" style="1" width="10.140625" collapsed="true" outlineLevel="1"/>
-    <col min="56" max="56" customWidth="true" style="1" width="15.28515625" collapsed="true" outlineLevel="1"/>
-    <col min="57" max="57" customWidth="true" style="1" width="14.42578125" collapsed="true" outlineLevel="1"/>
-    <col min="58" max="58" customWidth="true" style="1" width="19.0" collapsed="true" outlineLevel="1"/>
-    <col min="59" max="59" customWidth="true" style="1" width="18.7109375" collapsed="true" outlineLevel="1"/>
-    <col min="60" max="60" customWidth="true" style="1" width="19.7109375" collapsed="true" outlineLevel="1"/>
-    <col min="61" max="61" customWidth="true" style="1" width="19.42578125" collapsed="true" outlineLevel="1"/>
-    <col min="62" max="62" customWidth="true" style="1" width="22.5703125" collapsed="true" outlineLevel="1"/>
-    <col min="63" max="64" customWidth="true" style="1" width="9.140625" collapsed="true" outlineLevel="1"/>
-    <col min="65" max="65" customWidth="true" style="1" width="12.5703125" collapsed="true" outlineLevel="1"/>
-    <col min="66" max="66" customWidth="true" style="1" width="12.28515625" collapsed="true" outlineLevel="1"/>
-    <col min="67" max="67" customWidth="true" style="1" width="14.28515625" collapsed="true" outlineLevel="1"/>
-    <col min="68" max="68" customWidth="true" style="1" width="13.0" collapsed="true" outlineLevel="1"/>
-    <col min="69" max="69" customWidth="true" style="1" width="19.5703125" collapsed="true" outlineLevel="1"/>
-    <col min="70" max="70" customWidth="true" style="1" width="22.85546875" collapsed="true" outlineLevel="1"/>
-    <col min="71" max="71" customWidth="true" style="12" width="17.28515625" collapsed="true" outlineLevel="1"/>
-    <col min="72" max="72" customWidth="true" style="1" width="15.5703125" collapsed="true" outlineLevel="1"/>
-    <col min="73" max="73" customWidth="true" style="1" width="14.28515625" collapsed="true" outlineLevel="1"/>
-    <col min="74" max="74" customWidth="true" style="1" width="13.7109375" collapsed="true" outlineLevel="1"/>
-    <col min="75" max="75" customWidth="true" style="1" width="14.5703125" collapsed="true" outlineLevel="1"/>
-    <col min="76" max="76" customWidth="true" style="1" width="11.85546875" collapsed="true" outlineLevel="1"/>
-    <col min="77" max="77" customWidth="true" style="1" width="11.5703125" collapsed="true" outlineLevel="1"/>
-    <col min="78" max="78" customWidth="true" style="1" width="13.85546875" collapsed="true" outlineLevel="1"/>
-    <col min="79" max="79" customWidth="true" style="1" width="10.85546875" collapsed="true" outlineLevel="1"/>
-    <col min="80" max="80" customWidth="true" style="1" width="22.42578125" collapsed="true" outlineLevel="1"/>
-    <col min="81" max="81" customWidth="true" style="10" width="31.5703125" collapsed="true"/>
-    <col min="82" max="82" bestFit="true" customWidth="true" style="1" width="21.5703125" collapsed="true"/>
-    <col min="83" max="83" customWidth="true" style="1" width="13.5703125" collapsed="true" outlineLevel="1"/>
-    <col min="84" max="84" customWidth="true" style="1" width="9.140625" collapsed="true" outlineLevel="1"/>
-    <col min="85" max="85" customWidth="true" style="1" width="10.5703125" collapsed="true" outlineLevel="1"/>
-    <col min="86" max="86" customWidth="true" style="1" width="14.0" collapsed="true" outlineLevel="1"/>
-    <col min="87" max="87" customWidth="true" style="1" width="22.42578125" collapsed="true" outlineLevel="1"/>
-    <col min="88" max="88" customWidth="true" style="10" width="27.28515625" collapsed="true"/>
-    <col min="89" max="89" customWidth="true" style="2" width="14.42578125" collapsed="true" outlineLevel="1"/>
-    <col min="90" max="90" customWidth="true" style="1" width="17.140625" collapsed="true" outlineLevel="1"/>
-    <col min="91" max="91" customWidth="true" style="1" width="27.28515625" collapsed="true" outlineLevel="1"/>
-    <col min="92" max="92" customWidth="true" style="1" width="31.140625" collapsed="true" outlineLevel="1"/>
-    <col min="93" max="93" customWidth="true" style="1" width="51.7109375" collapsed="true" outlineLevel="1"/>
-    <col min="94" max="94" customWidth="true" style="3" width="9.140625" collapsed="true" outlineLevel="1"/>
-    <col min="95" max="95" customWidth="true" style="4" width="17.140625" collapsed="true" outlineLevel="1"/>
-    <col min="96" max="96" customWidth="true" style="4" width="15.5703125" collapsed="true" outlineLevel="1"/>
-    <col min="97" max="97" customWidth="true" style="1" width="24.0" collapsed="true" outlineLevel="1"/>
-    <col min="98" max="98" customWidth="true" style="1" width="24.7109375" collapsed="true" outlineLevel="1"/>
-    <col min="99" max="99" customWidth="true" style="4" width="19.7109375" collapsed="true" outlineLevel="1"/>
-    <col min="100" max="100" customWidth="true" style="4" width="21.42578125" collapsed="true" outlineLevel="1"/>
-    <col min="101" max="101" customWidth="true" style="1" width="15.85546875" collapsed="true" outlineLevel="1"/>
-    <col min="102" max="102" customWidth="true" style="1" width="155.5703125" collapsed="true" outlineLevel="1"/>
-    <col min="103" max="103" customWidth="true" style="1" width="41.28515625" collapsed="true" outlineLevel="1"/>
-    <col min="104" max="104" customWidth="true" style="1" width="12.140625" collapsed="true" outlineLevel="1"/>
-    <col min="105" max="105" customWidth="true" style="2" width="27.42578125" collapsed="true"/>
-    <col min="106" max="106" customWidth="true" style="2" width="15.5703125" collapsed="true" outlineLevel="1"/>
-    <col min="107" max="107" customWidth="true" style="2" width="19.85546875" collapsed="true" outlineLevel="1"/>
-    <col min="108" max="108" bestFit="true" customWidth="true" style="12" width="17.0" collapsed="true"/>
-    <col min="109" max="109" bestFit="true" customWidth="true" style="12" width="16.140625" collapsed="true"/>
-    <col min="110" max="110" customWidth="true" style="2" width="15.140625" collapsed="true" outlineLevel="1"/>
-    <col min="111" max="111" customWidth="true" style="17" width="25.28515625" collapsed="true" outlineLevel="1"/>
-    <col min="112" max="112" bestFit="true" customWidth="true" style="17" width="22.5703125" collapsed="true"/>
-    <col min="113" max="113" customWidth="true" style="2" width="18.42578125" collapsed="true" outlineLevel="1"/>
-    <col min="114" max="114" customWidth="true" style="2" width="17.28515625" collapsed="true" outlineLevel="1"/>
-    <col min="115" max="115" customWidth="true" style="2" width="16.140625" collapsed="true" outlineLevel="1"/>
-    <col min="116" max="116" customWidth="true" style="1" width="14.0" collapsed="true" outlineLevel="1"/>
-    <col min="117" max="117" bestFit="true" customWidth="true" style="1" width="15.85546875" collapsed="true"/>
-    <col min="118" max="118" bestFit="true" customWidth="true" style="12" width="12.0" collapsed="true"/>
-    <col min="119" max="119" customWidth="true" style="1" width="14.5703125" collapsed="true" outlineLevel="1"/>
-    <col min="120" max="120" bestFit="true" customWidth="true" style="1" width="9.140625" collapsed="true"/>
-    <col min="121" max="121" bestFit="true" customWidth="true" style="1" width="11.0" collapsed="true"/>
-    <col min="122" max="122" customWidth="true" style="1" width="16.85546875" collapsed="true" outlineLevel="1"/>
-    <col min="123" max="123" customWidth="true" style="1" width="13.28515625" collapsed="true" outlineLevel="1"/>
-    <col min="124" max="124" customWidth="true" style="1" width="37.28515625" collapsed="true" outlineLevel="1"/>
-    <col min="125" max="125" customWidth="true" style="1" width="10.5703125" collapsed="true" outlineLevel="1"/>
-    <col min="126" max="126" customWidth="true" style="1" width="15.140625" collapsed="true" outlineLevel="1"/>
-    <col min="127" max="127" customWidth="true" style="10" width="25.7109375" collapsed="true"/>
-    <col min="128" max="128" customWidth="true" style="1" width="22.7109375" collapsed="true" outlineLevel="1"/>
-    <col min="129" max="129" customWidth="true" style="1" width="29.0" collapsed="true" outlineLevel="1"/>
-    <col min="130" max="130" customWidth="true" style="1" width="23.7109375" collapsed="true" outlineLevel="1"/>
-    <col min="131" max="131" customWidth="true" style="1" width="16.42578125" collapsed="true" outlineLevel="1"/>
-    <col min="132" max="132" customWidth="true" style="1" width="23.5703125" collapsed="true" outlineLevel="1"/>
-    <col min="133" max="133" bestFit="true" customWidth="true" style="24" width="20.5703125" collapsed="true"/>
-    <col min="134" max="134" customWidth="true" style="1" width="27.42578125" collapsed="true" outlineLevel="1"/>
-    <col min="135" max="135" customWidth="true" style="1" width="25.85546875" collapsed="true" outlineLevel="1"/>
-    <col min="136" max="136" customWidth="true" style="1" width="12.0" collapsed="true" outlineLevel="1"/>
-    <col min="137" max="137" customWidth="true" style="1" width="15.5703125" collapsed="true" outlineLevel="1"/>
-    <col min="138" max="138" customWidth="true" style="21" width="20.7109375" collapsed="true" outlineLevel="1"/>
-    <col min="139" max="139" customWidth="true" style="1" width="24.5703125" collapsed="true" outlineLevel="1"/>
-    <col min="140" max="140" customWidth="true" style="1" width="14.5703125" collapsed="true" outlineLevel="1"/>
-    <col min="141" max="141" customWidth="true" style="1" width="19.0" collapsed="true" outlineLevel="1"/>
-    <col min="142" max="144" customWidth="true" style="1" width="21.140625" collapsed="true" outlineLevel="1"/>
-    <col min="145" max="145" customWidth="true" style="1" width="26.5703125" collapsed="true" outlineLevel="1"/>
-    <col min="146" max="146" customWidth="true" style="1" width="20.5703125" collapsed="true" outlineLevel="1"/>
-    <col min="147" max="147" customWidth="true" style="1" width="26.28515625" collapsed="true" outlineLevel="1"/>
-    <col min="148" max="148" customWidth="true" style="1" width="23.85546875" collapsed="true" outlineLevel="1"/>
-    <col min="149" max="149" customWidth="true" style="1" width="22.7109375" collapsed="true" outlineLevel="1"/>
-    <col min="150" max="150" customWidth="true" style="1" width="32.5703125" collapsed="true" outlineLevel="1"/>
-    <col min="151" max="151" customWidth="true" style="1" width="15.140625" collapsed="true" outlineLevel="1"/>
-    <col min="152" max="152" customWidth="true" style="1" width="13.28515625" collapsed="true" outlineLevel="1"/>
-    <col min="153" max="153" customWidth="true" style="12" width="28.0" collapsed="true" outlineLevel="1"/>
-    <col min="154" max="154" customWidth="true" style="1" width="28.7109375" collapsed="true" outlineLevel="1"/>
-    <col min="155" max="155" customWidth="true" style="1" width="18.5703125" collapsed="true" outlineLevel="1"/>
-    <col min="156" max="156" customWidth="true" style="1" width="11.7109375" collapsed="true" outlineLevel="1"/>
-    <col min="157" max="157" customWidth="true" style="1" width="11.42578125" collapsed="true" outlineLevel="1"/>
-    <col min="158" max="158" customWidth="true" style="1" width="17.5703125" collapsed="true" outlineLevel="1"/>
-    <col min="159" max="159" customWidth="true" style="1" width="16.28515625" collapsed="true" outlineLevel="1"/>
-    <col min="160" max="160" customWidth="true" style="1" width="16.140625" collapsed="true" outlineLevel="1"/>
-    <col min="161" max="161" customWidth="true" style="1" width="14.5703125" collapsed="true" outlineLevel="1"/>
-    <col min="162" max="162" customWidth="true" style="1" width="16.5703125" collapsed="true" outlineLevel="1"/>
-    <col min="163" max="163" customWidth="true" style="1" width="9.140625" collapsed="true"/>
-    <col min="164" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.42578125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="2" max="2" width="13" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="3" max="3" width="15.140625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="4" max="4" width="19" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="5" max="5" width="20.140625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="6" max="6" width="13.28515625" style="2" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="7" max="7" width="18" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="8" max="8" width="70.28515625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="9" max="9" width="18" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="10" max="10" width="70.140625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="11" max="11" width="18" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="12" max="12" width="67.7109375" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="13" max="13" width="18" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="14" max="14" width="70.28515625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="15" max="15" width="18" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="16" max="16" width="67.7109375" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="17" max="17" width="12.7109375" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="18" max="18" width="39.140625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="19" max="19" width="42.42578125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="20" max="20" width="35.42578125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="21" max="21" width="56.85546875" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="22" max="22" width="35.42578125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="23" max="23" width="31.7109375" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="24" max="24" width="19.42578125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="25" max="25" width="18.5703125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="26" max="26" width="22.42578125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="27" max="27" width="14.7109375" style="12" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="28" max="28" width="12.7109375" style="12" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="29" max="29" width="10.5703125" style="2" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="30" max="30" width="19.140625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="31" max="31" width="11.85546875" style="12" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="32" max="32" width="12.7109375" style="12" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="33" max="33" width="14.5703125" style="2" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="34" max="34" width="19.140625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="35" max="35" width="17.42578125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="36" max="37" width="21" style="10" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="38" max="38" width="16.140625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="39" max="39" width="27.42578125" style="10" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="40" max="40" width="9.140625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="41" max="41" width="10.7109375" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="42" max="42" width="39.42578125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="43" max="43" width="20.140625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="44" max="44" width="40" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="45" max="45" width="12.5703125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="46" max="46" width="21.140625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="47" max="48" width="9.140625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="49" max="49" width="16.28515625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="50" max="50" width="14.140625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="51" max="51" width="12.28515625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="52" max="52" width="51.7109375" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="53" max="53" width="40.7109375" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="54" max="54" width="32.5703125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="55" max="55" width="10.140625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="56" max="56" width="15.28515625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="57" max="57" width="14.42578125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="58" max="58" width="19" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="59" max="59" width="18.7109375" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="60" max="60" width="19.7109375" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="61" max="61" width="19.42578125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="62" max="62" width="22.5703125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="63" max="64" width="9.140625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="65" max="65" width="12.5703125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="66" max="66" width="12.28515625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="67" max="67" width="14.28515625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="68" max="68" width="13" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="69" max="69" width="19.5703125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="70" max="70" width="22.85546875" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="71" max="71" width="17.28515625" style="12" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="72" max="72" width="15.5703125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="73" max="73" width="14.28515625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="74" max="74" width="13.7109375" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="75" max="75" width="14.5703125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="76" max="76" width="11.85546875" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="77" max="77" width="11.5703125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="78" max="78" width="13.85546875" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="79" max="79" width="10.85546875" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="80" max="80" width="22.42578125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="81" max="81" width="31.5703125" style="10" customWidth="1"/>
+    <col min="82" max="82" width="21.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="83" max="83" width="13.5703125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="84" max="84" width="9.140625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="85" max="85" width="10.5703125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="86" max="86" width="14" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="87" max="87" width="22.42578125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="88" max="88" width="27.28515625" style="10" customWidth="1"/>
+    <col min="89" max="89" width="14.42578125" style="2" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="90" max="90" width="17.140625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="91" max="91" width="27.28515625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="92" max="92" width="31.140625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="93" max="93" width="51.7109375" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="94" max="94" width="9.140625" style="3" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="95" max="95" width="17.140625" style="4" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="96" max="96" width="15.5703125" style="4" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="97" max="97" width="24" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="98" max="98" width="24.7109375" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="99" max="99" width="19.7109375" style="4" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="100" max="100" width="21.42578125" style="4" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="101" max="101" width="15.85546875" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="102" max="102" width="155.5703125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="103" max="103" width="41.28515625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="104" max="104" width="12.140625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="105" max="105" width="27.42578125" style="2" customWidth="1"/>
+    <col min="106" max="106" width="15.5703125" style="2" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="107" max="107" width="19.85546875" style="2" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="108" max="108" width="17" style="12" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="16.140625" style="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="110" max="110" width="15.140625" style="2" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="111" max="111" width="25.28515625" style="17" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="112" max="112" width="22.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="18.42578125" style="2" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="114" max="114" width="17.28515625" style="2" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="115" max="115" width="16.140625" style="2" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="116" max="116" width="14" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="117" max="117" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="12" style="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="119" max="119" width="14.5703125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="120" max="120" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="11" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="122" max="122" width="16.85546875" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="123" max="123" width="13.28515625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="124" max="124" width="37.28515625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="125" max="125" width="10.5703125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="126" max="126" width="15.140625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="127" max="127" width="25.7109375" style="10" customWidth="1"/>
+    <col min="128" max="128" width="22.7109375" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="129" max="129" width="29" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="130" max="130" width="23.7109375" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="131" max="131" width="16.42578125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="132" max="132" width="23.5703125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="133" max="133" width="20.5703125" style="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="134" max="134" width="27.42578125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="135" max="135" width="25.85546875" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="136" max="136" width="12" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="137" max="137" width="15.5703125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="138" max="138" width="20.7109375" style="21" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="139" max="139" width="24.5703125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="140" max="140" width="14.5703125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="141" max="141" width="19" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="142" max="144" width="21.140625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="145" max="145" width="26.5703125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="146" max="146" width="20.5703125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="147" max="147" width="26.28515625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="148" max="148" width="23.85546875" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="149" max="149" width="22.7109375" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="150" max="150" width="32.5703125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="151" max="151" width="15.140625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="152" max="152" width="13.28515625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="153" max="153" width="28" style="12" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="154" max="154" width="28.7109375" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="155" max="155" width="18.5703125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="156" max="156" width="11.7109375" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="157" max="157" width="11.42578125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="158" max="158" width="17.5703125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="159" max="159" width="16.28515625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="160" max="160" width="16.140625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="161" max="161" width="14.5703125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="162" max="162" width="16.5703125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="163" max="163" width="9.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="164" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:162" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1505,7 +1492,7 @@
         <v>45</v>
       </c>
       <c r="AU1" s="6" t="s">
-        <v>46</v>
+        <v>230</v>
       </c>
       <c r="AV1" s="6" t="s">
         <v>47</v>
@@ -1870,7 +1857,7 @@
         <v>193</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>224</v>
@@ -2140,13 +2127,13 @@
         <v>174</v>
       </c>
       <c r="DT2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="DU2" s="1" t="s">
         <v>174</v>
       </c>
       <c r="DV2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="DW2" s="27" t="s">
         <v>220</v>

--- a/ui-testsuite/src/main/resources/TestData/ATR_imported_UpdatePipeline_1.xlsx
+++ b/ui-testsuite/src/main/resources/TestData/ATR_imported_UpdatePipeline_1.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$FF$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$FF$4</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="229">
   <si>
     <t>IB TYPE</t>
   </si>
@@ -585,6 +585,9 @@
     <t>2016-Q3</t>
   </si>
   <si>
+    <t>OPEN</t>
+  </si>
+  <si>
     <t>TOP CAM</t>
   </si>
   <si>
@@ -597,6 +600,9 @@
     <t>SOUTH PACIFIC</t>
   </si>
   <si>
+    <t>Brasch, Pauline</t>
+  </si>
+  <si>
     <t>ZA</t>
   </si>
   <si>
@@ -684,7 +690,13 @@
     <t>00492773</t>
   </si>
   <si>
-    <t>CCV</t>
+    <t>FFED82DF-595F-45E6-9F56-2E63CA891B5F</t>
+  </si>
+  <si>
+    <t>FF17DB39-5F54-475C-B13B-26F11F8AD812</t>
+  </si>
+  <si>
+    <t>FDE6D116-33DF-4E0E-BDF4-E6896C0EAC4A</t>
   </si>
   <si>
     <t>WON</t>
@@ -693,28 +705,20 @@
     <t>AU753682835</t>
   </si>
   <si>
-    <t>InputDataShipToName</t>
-  </si>
-  <si>
-    <t>7929214536</t>
-  </si>
-  <si>
-    <t>nguyen.van.A</t>
-  </si>
-  <si>
-    <t>3333</t>
-  </si>
-  <si>
-    <t>Shift to SaaS</t>
-  </si>
-  <si>
-    <t>ATR Error - invalid data</t>
-  </si>
-  <si>
-    <t>3146820256</t>
-  </si>
-  <si>
     <t>EOT</t>
+  </si>
+  <si>
+    <r>
+      <t>Performance testing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> is defined as the technical investigation done to determine or validate the speed, scalability, and/or stability characteristics of the product under test. Performance-related activities, such as testing and tuning, are concerned with achieving response times, throughput, and resource-utilization levels that meet the performance objectives for the application under test. Because performance testing is a general term that covers all of its various subsets, every value and benefit listed under other performance test types in this chapter can also be considered a potential benefit of performance testing in general.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -726,7 +730,7 @@
     <numFmt numFmtId="164" formatCode="[$-409]mmmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -756,6 +760,18 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="6">
@@ -898,10 +914,8 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1183,173 +1197,173 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FF2"/>
+  <dimension ref="A1:FF4"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AQ1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AU2" sqref="AU2"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="2" max="2" width="13" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="3" max="3" width="15.140625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="4" max="4" width="19" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="5" max="5" width="20.140625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="6" max="6" width="13.28515625" style="2" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="7" max="7" width="18" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="8" max="8" width="70.28515625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="9" max="9" width="18" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="10" max="10" width="70.140625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="11" max="11" width="18" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="12" max="12" width="67.7109375" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="13" max="13" width="18" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="14" max="14" width="70.28515625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="15" max="15" width="18" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="16" max="16" width="67.7109375" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="17" max="17" width="12.7109375" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="18" max="18" width="39.140625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="19" max="19" width="42.42578125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="20" max="20" width="35.42578125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="21" max="21" width="56.85546875" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="22" max="22" width="35.42578125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="23" max="23" width="31.7109375" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="24" max="24" width="19.42578125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="25" max="25" width="18.5703125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="26" max="26" width="22.42578125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="27" max="27" width="14.7109375" style="12" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="28" max="28" width="12.7109375" style="12" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="29" max="29" width="10.5703125" style="2" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="30" max="30" width="19.140625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="31" max="31" width="11.85546875" style="12" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="32" max="32" width="12.7109375" style="12" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="33" max="33" width="14.5703125" style="2" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="34" max="34" width="19.140625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="35" max="35" width="17.42578125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="36" max="37" width="21" style="10" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="38" max="38" width="16.140625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="39" max="39" width="27.42578125" style="10" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="40" max="40" width="9.140625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="41" max="41" width="10.7109375" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="42" max="42" width="39.42578125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="43" max="43" width="20.140625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="44" max="44" width="40" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="45" max="45" width="12.5703125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="46" max="46" width="21.140625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="47" max="48" width="9.140625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="49" max="49" width="16.28515625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="50" max="50" width="14.140625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="51" max="51" width="12.28515625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="52" max="52" width="51.7109375" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="53" max="53" width="40.7109375" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="54" max="54" width="32.5703125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="55" max="55" width="10.140625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="56" max="56" width="15.28515625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="57" max="57" width="14.42578125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="58" max="58" width="19" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="59" max="59" width="18.7109375" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="60" max="60" width="19.7109375" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="61" max="61" width="19.42578125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="62" max="62" width="22.5703125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="63" max="64" width="9.140625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="65" max="65" width="12.5703125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="66" max="66" width="12.28515625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="67" max="67" width="14.28515625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="68" max="68" width="13" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="69" max="69" width="19.5703125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="70" max="70" width="22.85546875" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="71" max="71" width="17.28515625" style="12" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="72" max="72" width="15.5703125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="73" max="73" width="14.28515625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="74" max="74" width="13.7109375" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="75" max="75" width="14.5703125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="76" max="76" width="11.85546875" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="77" max="77" width="11.5703125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="78" max="78" width="13.85546875" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="79" max="79" width="10.85546875" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="80" max="80" width="22.42578125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="1" max="1" width="9.42578125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="2" max="2" width="13" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="15.140625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="19" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="20.140625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="13.28515625" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="18" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="70.28515625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="18" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="70.140625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="18" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="67.7109375" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="18" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="70.28515625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="18" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="67.7109375" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="12.7109375" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="39.140625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="42.42578125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="20" width="35.42578125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="56.85546875" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="35.42578125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="31.7109375" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="24" max="24" width="19.42578125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="25" max="25" width="18.5703125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="26" max="26" width="22.42578125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="27" width="14.7109375" style="12" customWidth="1" outlineLevel="1"/>
+    <col min="28" max="28" width="12.7109375" style="12" customWidth="1" outlineLevel="1"/>
+    <col min="29" max="29" width="10.5703125" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="30" max="30" width="19.140625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="31" max="31" width="11.85546875" style="12" customWidth="1" outlineLevel="1"/>
+    <col min="32" max="32" width="12.7109375" style="12" customWidth="1" outlineLevel="1"/>
+    <col min="33" max="33" width="14.5703125" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="34" max="34" width="19.140625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="35" max="35" width="17.42578125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="36" max="37" width="21" style="10" customWidth="1" outlineLevel="1"/>
+    <col min="38" max="38" width="16.140625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="39" max="39" width="27.42578125" style="10" customWidth="1" outlineLevel="1"/>
+    <col min="40" max="40" width="9.140625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="41" max="41" width="10.7109375" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="42" max="42" width="39.42578125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="43" max="43" width="20.140625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="44" max="44" width="40" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="45" max="45" width="12.5703125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="46" max="46" width="21.140625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="47" max="48" width="9.140625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="49" max="49" width="16.28515625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="50" max="50" width="14.140625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="51" max="51" width="12.28515625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="52" max="52" width="51.7109375" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="53" max="53" width="40.7109375" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="54" max="54" width="32.5703125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="55" max="55" width="10.140625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="56" max="56" width="15.28515625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="57" max="57" width="14.42578125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="58" max="58" width="19" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="59" max="59" width="18.7109375" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="60" max="60" width="19.7109375" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="61" max="61" width="19.42578125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="62" max="62" width="22.5703125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="63" max="64" width="9.140625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="65" max="65" width="12.5703125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="66" max="66" width="12.28515625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="67" max="67" width="14.28515625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="68" max="68" width="13" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="69" max="69" width="19.5703125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="70" max="70" width="22.85546875" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="71" max="71" width="17.28515625" style="12" customWidth="1" outlineLevel="1"/>
+    <col min="72" max="72" width="15.5703125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="73" max="73" width="14.28515625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="74" max="74" width="13.7109375" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="75" max="75" width="14.5703125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="76" max="76" width="11.85546875" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="77" max="77" width="11.5703125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="78" max="78" width="13.85546875" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="79" max="79" width="10.85546875" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="80" max="80" width="22.42578125" style="1" customWidth="1" outlineLevel="1"/>
     <col min="81" max="81" width="31.5703125" style="10" customWidth="1"/>
-    <col min="82" max="82" width="21.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="83" max="83" width="13.5703125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="84" max="84" width="9.140625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="85" max="85" width="10.5703125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="86" max="86" width="14" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="87" max="87" width="22.42578125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="82" max="82" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="13.5703125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="84" max="84" width="9.140625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="85" max="85" width="10.5703125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="86" max="86" width="14" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="87" max="87" width="22.42578125" style="1" customWidth="1" outlineLevel="1"/>
     <col min="88" max="88" width="27.28515625" style="10" customWidth="1"/>
-    <col min="89" max="89" width="14.42578125" style="2" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="90" max="90" width="17.140625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="91" max="91" width="27.28515625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="92" max="92" width="31.140625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="93" max="93" width="51.7109375" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="94" max="94" width="9.140625" style="3" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="95" max="95" width="17.140625" style="4" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="96" max="96" width="15.5703125" style="4" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="97" max="97" width="24" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="98" max="98" width="24.7109375" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="99" max="99" width="19.7109375" style="4" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="100" max="100" width="21.42578125" style="4" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="101" max="101" width="15.85546875" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="102" max="102" width="155.5703125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="103" max="103" width="41.28515625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="104" max="104" width="12.140625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="89" max="89" width="14.42578125" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="90" max="90" width="17.140625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="91" max="91" width="27.28515625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="92" max="92" width="31.140625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="93" max="93" width="51.7109375" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="94" max="94" width="9.140625" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="95" max="95" width="17.140625" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="96" max="96" width="15.5703125" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="97" max="97" width="24" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="98" max="98" width="24.7109375" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="99" max="99" width="19.7109375" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="100" max="100" width="21.42578125" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="101" max="101" width="15.85546875" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="102" max="102" width="155.5703125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="103" max="103" width="41.28515625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="104" max="104" width="12.140625" style="1" customWidth="1" outlineLevel="1"/>
     <col min="105" max="105" width="27.42578125" style="2" customWidth="1"/>
-    <col min="106" max="106" width="15.5703125" style="2" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="107" max="107" width="19.85546875" style="2" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="106" max="106" width="15.5703125" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="107" max="107" width="19.85546875" style="2" customWidth="1" outlineLevel="1"/>
     <col min="108" max="108" width="17" style="12" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="16.140625" style="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="110" max="110" width="15.140625" style="2" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="111" max="111" width="25.28515625" style="17" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="109" max="109" width="16.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="15.140625" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="111" max="111" width="25.28515625" style="17" customWidth="1" outlineLevel="1"/>
     <col min="112" max="112" width="22.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="18.42578125" style="2" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="114" max="114" width="17.28515625" style="2" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="115" max="115" width="16.140625" style="2" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="116" max="116" width="14" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="113" max="113" width="18.42578125" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="114" max="114" width="17.28515625" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="115" max="115" width="16.140625" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="116" max="116" width="14" style="1" customWidth="1" outlineLevel="1"/>
     <col min="117" max="117" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="12" style="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="119" max="119" width="14.5703125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="118" max="118" width="12" style="12" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="14.5703125" style="1" customWidth="1" outlineLevel="1"/>
     <col min="120" max="120" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="11" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="122" max="122" width="16.85546875" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="123" max="123" width="13.28515625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="124" max="124" width="37.28515625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="125" max="125" width="10.5703125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="126" max="126" width="15.140625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="121" max="121" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="16.85546875" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="123" max="123" width="13.28515625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="124" max="124" width="37.28515625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="125" max="125" width="10.5703125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="126" max="126" width="15.140625" style="1" customWidth="1" outlineLevel="1"/>
     <col min="127" max="127" width="25.7109375" style="10" customWidth="1"/>
-    <col min="128" max="128" width="22.7109375" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="129" max="129" width="29" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="130" max="130" width="23.7109375" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="131" max="131" width="16.42578125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="132" max="132" width="23.5703125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="133" max="133" width="20.5703125" style="24" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="134" max="134" width="27.42578125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="135" max="135" width="25.85546875" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="136" max="136" width="12" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="137" max="137" width="15.5703125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="138" max="138" width="20.7109375" style="21" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="139" max="139" width="24.5703125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="140" max="140" width="14.5703125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="141" max="141" width="19" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="142" max="144" width="21.140625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="145" max="145" width="26.5703125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="146" max="146" width="20.5703125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="147" max="147" width="26.28515625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="148" max="148" width="23.85546875" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="149" max="149" width="22.7109375" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="150" max="150" width="32.5703125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="151" max="151" width="15.140625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="152" max="152" width="13.28515625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="153" max="153" width="28" style="12" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="154" max="154" width="28.7109375" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="155" max="155" width="18.5703125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="156" max="156" width="11.7109375" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="157" max="157" width="11.42578125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="158" max="158" width="17.5703125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="159" max="159" width="16.28515625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="160" max="160" width="16.140625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="161" max="161" width="14.5703125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="162" max="162" width="16.5703125" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="163" max="163" width="9.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="164" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="128" max="128" width="22.7109375" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="129" max="129" width="29" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="130" max="130" width="23.7109375" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="131" max="131" width="16.42578125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="132" max="132" width="23.5703125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="133" max="133" width="20.5703125" style="24" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="27.42578125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="135" max="135" width="25.85546875" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="136" max="136" width="12" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="137" max="137" width="15.5703125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="138" max="138" width="20.7109375" style="21" customWidth="1" outlineLevel="1"/>
+    <col min="139" max="139" width="24.5703125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="140" max="140" width="14.5703125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="141" max="141" width="19" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="142" max="144" width="21.140625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="145" max="145" width="26.5703125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="146" max="146" width="20.5703125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="147" max="147" width="26.28515625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="148" max="148" width="23.85546875" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="149" max="149" width="22.7109375" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="150" max="150" width="32.5703125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="151" max="151" width="15.140625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="152" max="152" width="13.28515625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="153" max="153" width="28" style="12" customWidth="1" outlineLevel="1"/>
+    <col min="154" max="154" width="28.7109375" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="155" max="155" width="18.5703125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="156" max="156" width="11.7109375" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="157" max="157" width="11.42578125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="158" max="158" width="17.5703125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="159" max="159" width="16.28515625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="160" max="160" width="16.140625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="161" max="161" width="14.5703125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="162" max="162" width="16.5703125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="163" max="163" width="9.140625" style="1" customWidth="1"/>
+    <col min="164" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:162" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1492,7 +1506,7 @@
         <v>45</v>
       </c>
       <c r="AU1" s="6" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="AV1" s="6" t="s">
         <v>47</v>
@@ -1845,70 +1859,67 @@
         <v>177</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>229</v>
+        <v>195</v>
+      </c>
+      <c r="F2" s="2">
+        <v>2100004065</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>195</v>
-      </c>
       <c r="O2" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AA2" s="12">
         <v>42209</v>
@@ -1929,25 +1940,25 @@
         <v>43305</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AJ2" s="10" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AK2" s="10" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AL2" s="1" t="s">
         <v>180</v>
       </c>
       <c r="AM2" s="10" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AN2" s="1" t="s">
         <v>181</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AS2" s="1" t="s">
         <v>182</v>
@@ -1962,46 +1973,46 @@
         <v>164</v>
       </c>
       <c r="AX2" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AY2" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AZ2" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="BA2" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="BB2" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="BC2" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="BD2" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="BF2" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="BG2" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="BI2" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="BO2" s="1" t="s">
         <v>165</v>
       </c>
       <c r="BP2" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="BQ2" s="1" t="s">
         <v>166</v>
       </c>
       <c r="BR2" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="BS2" s="12">
         <v>42575</v>
@@ -2028,16 +2039,16 @@
         <v>169</v>
       </c>
       <c r="CB2" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="CC2" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="CD2" s="28" t="s">
-        <v>225</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>226</v>
+        <v>200</v>
+      </c>
+      <c r="CD2" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="CE2" s="27">
+        <v>265922</v>
       </c>
       <c r="CF2" s="1" t="s">
         <v>170</v>
@@ -2049,10 +2060,10 @@
         <v>170</v>
       </c>
       <c r="CI2" s="1" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="CJ2" s="10" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="CL2" s="1" t="s">
         <v>179</v>
@@ -2075,11 +2086,14 @@
       <c r="CW2" s="1" t="s">
         <v>183</v>
       </c>
+      <c r="CY2" s="1" t="s">
+        <v>222</v>
+      </c>
       <c r="CZ2" s="1" t="s">
         <v>173</v>
       </c>
       <c r="DA2" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="DC2" s="2" t="s">
         <v>171</v>
@@ -2100,7 +2114,7 @@
         <v>1477726.8</v>
       </c>
       <c r="DK2" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="DL2" s="1" t="s">
         <v>184</v>
@@ -2126,17 +2140,11 @@
       <c r="DS2" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="DT2" t="s">
-        <v>227</v>
-      </c>
       <c r="DU2" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="DV2" t="s">
+      <c r="DW2" s="28" t="s">
         <v>228</v>
-      </c>
-      <c r="DW2" s="27" t="s">
-        <v>220</v>
       </c>
       <c r="DZ2" s="1">
         <v>0</v>
@@ -2163,7 +2171,7 @@
         <v>42582</v>
       </c>
       <c r="EI2" s="1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="EJ2" s="1" t="s">
         <v>175</v>
@@ -2190,23 +2198,741 @@
         <v>176</v>
       </c>
       <c r="EX2" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="EY2" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="EZ2" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="FD2" s="1" t="s">
         <v>174</v>
       </c>
       <c r="FE2" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:162" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2100005065</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AA3" s="12">
+        <v>42209</v>
+      </c>
+      <c r="AB3" s="12">
+        <v>43304</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AE3" s="12">
+        <v>36494</v>
+      </c>
+      <c r="AF3" s="12">
+        <v>43305</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="AJ3" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="AK3" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="AM3" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AT3" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AU3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW3" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AX3" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="AY3" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="AZ3" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="BA3" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="BB3" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="BC3" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="BD3" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="BF3" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="BG3" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="BI3" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="BO3" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="BP3" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="BQ3" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="BR3" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="BS3" s="12">
+        <v>42575</v>
+      </c>
+      <c r="BT3" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="BV3" s="1">
+        <v>7</v>
+      </c>
+      <c r="BW3" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="BX3" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="BY3" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="BZ3" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="CA3" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="CB3" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="CC3" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="CD3" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="CE3" s="27">
+        <v>265922</v>
+      </c>
+      <c r="CF3" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="CG3" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="CH3" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="CI3" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="CJ3" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="CL3" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="CP3" s="3">
+        <v>1.4065000000000001</v>
+      </c>
+      <c r="CQ3" s="4">
+        <v>1477726.8</v>
+      </c>
+      <c r="CR3" s="4">
+        <v>1050641.1660149307</v>
+      </c>
+      <c r="CU3" s="4">
+        <v>1050641.1660149307</v>
+      </c>
+      <c r="CV3" s="4">
+        <v>1477726.8</v>
+      </c>
+      <c r="CW3" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="CY3" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="CZ3" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="DA3" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="DC3" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="DF3" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="DG3" s="17">
+        <v>0</v>
+      </c>
+      <c r="DH3" s="17">
+        <v>1477726.8</v>
+      </c>
+      <c r="DI3" s="2">
+        <v>1477726.8</v>
+      </c>
+      <c r="DJ3" s="2">
+        <v>1477726.8</v>
+      </c>
+      <c r="DK3" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="DL3" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="DM3" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="DN3" s="12">
+        <v>42575</v>
+      </c>
+      <c r="DO3" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="DP3" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="DQ3" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="DR3" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="DS3" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="DU3" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="DW3" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="DZ3" s="1">
+        <v>0</v>
+      </c>
+      <c r="EA3" s="1">
+        <v>1055097.1040000001</v>
+      </c>
+      <c r="EB3" s="1">
+        <v>1055097.1040000001</v>
+      </c>
+      <c r="EC3" s="24">
+        <v>1055097.1040155366</v>
+      </c>
+      <c r="ED3" s="1">
+        <v>1477726.8</v>
+      </c>
+      <c r="EE3" s="1">
+        <v>1055097.1040000001</v>
+      </c>
+      <c r="EF3" s="1">
+        <v>1.40056</v>
+      </c>
+      <c r="EH3" s="21">
+        <v>42582</v>
+      </c>
+      <c r="EI3" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="EJ3" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="EK3" s="1">
+        <v>0</v>
+      </c>
+      <c r="EL3" s="1">
+        <v>0</v>
+      </c>
+      <c r="EM3" s="1">
+        <v>0</v>
+      </c>
+      <c r="EN3" s="1">
+        <v>0</v>
+      </c>
+      <c r="EO3" s="1">
+        <v>0</v>
+      </c>
+      <c r="EV3" s="1">
+        <v>1629</v>
+      </c>
+      <c r="EW3" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="EX3" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="EY3" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="EZ3" s="1" t="s">
         <v>188</v>
+      </c>
+      <c r="FD3" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="FE3" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:162" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2100006065</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AA4" s="12">
+        <v>42209</v>
+      </c>
+      <c r="AB4" s="12">
+        <v>43304</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AE4" s="12">
+        <v>36494</v>
+      </c>
+      <c r="AF4" s="12">
+        <v>43305</v>
+      </c>
+      <c r="AG4" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="AJ4" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="AK4" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="AL4" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="AM4" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="AN4" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AR4" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="AS4" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AT4" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AU4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW4" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AX4" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="AY4" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="AZ4" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="BA4" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="BB4" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="BC4" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="BD4" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="BF4" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="BG4" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="BI4" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="BO4" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="BP4" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="BQ4" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="BR4" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="BS4" s="12">
+        <v>42575</v>
+      </c>
+      <c r="BT4" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="BV4" s="1">
+        <v>7</v>
+      </c>
+      <c r="BW4" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="BX4" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="BY4" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="BZ4" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="CA4" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="CB4" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="CC4" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="CD4" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="CE4" s="27">
+        <v>265922</v>
+      </c>
+      <c r="CF4" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="CG4" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="CH4" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="CI4" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="CJ4" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="CL4" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="CP4" s="3">
+        <v>1.4065000000000001</v>
+      </c>
+      <c r="CQ4" s="4">
+        <v>1477726.8</v>
+      </c>
+      <c r="CR4" s="4">
+        <v>1050641.1660149307</v>
+      </c>
+      <c r="CU4" s="4">
+        <v>1050641.1660149307</v>
+      </c>
+      <c r="CV4" s="4">
+        <v>1477726.8</v>
+      </c>
+      <c r="CW4" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="CY4" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="CZ4" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="DA4" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="DC4" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="DF4" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="DG4" s="17">
+        <v>0</v>
+      </c>
+      <c r="DH4" s="17">
+        <v>1477726.8</v>
+      </c>
+      <c r="DI4" s="2">
+        <v>1477726.8</v>
+      </c>
+      <c r="DJ4" s="2">
+        <v>1477726.8</v>
+      </c>
+      <c r="DK4" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="DL4" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="DM4" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="DN4" s="12">
+        <v>42575</v>
+      </c>
+      <c r="DO4" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="DP4" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="DQ4" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="DR4" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="DS4" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="DU4" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="DW4" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="DZ4" s="1">
+        <v>0</v>
+      </c>
+      <c r="EA4" s="1">
+        <v>1055097.1040000001</v>
+      </c>
+      <c r="EB4" s="1">
+        <v>1055097.1040000001</v>
+      </c>
+      <c r="EC4" s="24">
+        <v>1055097.1040155366</v>
+      </c>
+      <c r="ED4" s="1">
+        <v>1477726.8</v>
+      </c>
+      <c r="EE4" s="1">
+        <v>1055097.1040000001</v>
+      </c>
+      <c r="EF4" s="1">
+        <v>1.40056</v>
+      </c>
+      <c r="EH4" s="21">
+        <v>42582</v>
+      </c>
+      <c r="EI4" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="EJ4" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="EK4" s="1">
+        <v>0</v>
+      </c>
+      <c r="EL4" s="1">
+        <v>0</v>
+      </c>
+      <c r="EM4" s="1">
+        <v>0</v>
+      </c>
+      <c r="EN4" s="1">
+        <v>0</v>
+      </c>
+      <c r="EO4" s="1">
+        <v>0</v>
+      </c>
+      <c r="EV4" s="1">
+        <v>1629</v>
+      </c>
+      <c r="EW4" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="EX4" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="EY4" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="EZ4" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="FD4" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="FE4" s="1" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:FF2"/>
+  <autoFilter ref="A1:FF4"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/ui-testsuite/src/main/resources/TestData/ATR_imported_UpdatePipeline_1.xlsx
+++ b/ui-testsuite/src/main/resources/TestData/ATR_imported_UpdatePipeline_1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Workspace\ui-test\ui-testsuite\src\main\resources\TestData\"/>
     </mc:Choice>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="236">
   <si>
     <t>IB TYPE</t>
   </si>
@@ -720,6 +720,27 @@
       <t xml:space="preserve"> is defined as the technical investigation done to determine or validate the speed, scalability, and/or stability characteristics of the product under test. Performance-related activities, such as testing and tuning, are concerned with achieving response times, throughput, and resource-utilization levels that meet the performance objectives for the application under test. Because performance testing is a general term that covers all of its various subsets, every value and benefit listed under other performance test types in this chapter can also be considered a potential benefit of performance testing in general.</t>
     </r>
   </si>
+  <si>
+    <t>6911133054</t>
+  </si>
+  <si>
+    <t>6789021275</t>
+  </si>
+  <si>
+    <t>3940916454</t>
+  </si>
+  <si>
+    <t>3360252364</t>
+  </si>
+  <si>
+    <t>2977070402</t>
+  </si>
+  <si>
+    <t>9934401016</t>
+  </si>
+  <si>
+    <t>4769115888</t>
+  </si>
 </sst>
 </file>
 
@@ -730,7 +751,7 @@
     <numFmt numFmtId="164" formatCode="[$-409]mmmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -772,6 +793,41 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1205,165 +1261,165 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="2" max="2" width="13" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="15.140625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="19" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="20.140625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="13.28515625" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="18" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="70.28515625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="18" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="70.140625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="18" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="67.7109375" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="18" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="70.28515625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="18" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="67.7109375" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="12.7109375" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="18" width="39.140625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="19" width="42.42578125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="20" width="35.42578125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="56.85546875" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="35.42578125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="23" max="23" width="31.7109375" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="24" max="24" width="19.42578125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="25" max="25" width="18.5703125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="26" max="26" width="22.42578125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="27" max="27" width="14.7109375" style="12" customWidth="1" outlineLevel="1"/>
-    <col min="28" max="28" width="12.7109375" style="12" customWidth="1" outlineLevel="1"/>
-    <col min="29" max="29" width="10.5703125" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="30" max="30" width="19.140625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="31" max="31" width="11.85546875" style="12" customWidth="1" outlineLevel="1"/>
-    <col min="32" max="32" width="12.7109375" style="12" customWidth="1" outlineLevel="1"/>
-    <col min="33" max="33" width="14.5703125" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="34" max="34" width="19.140625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="35" max="35" width="17.42578125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="36" max="37" width="21" style="10" customWidth="1" outlineLevel="1"/>
-    <col min="38" max="38" width="16.140625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="39" max="39" width="27.42578125" style="10" customWidth="1" outlineLevel="1"/>
-    <col min="40" max="40" width="9.140625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="41" max="41" width="10.7109375" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="42" max="42" width="39.42578125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="43" max="43" width="20.140625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="44" max="44" width="40" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="45" max="45" width="12.5703125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="46" max="46" width="21.140625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="47" max="48" width="9.140625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="49" max="49" width="16.28515625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="50" max="50" width="14.140625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="51" max="51" width="12.28515625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="52" max="52" width="51.7109375" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="53" max="53" width="40.7109375" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="54" max="54" width="32.5703125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="55" max="55" width="10.140625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="56" max="56" width="15.28515625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="57" max="57" width="14.42578125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="58" max="58" width="19" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="59" max="59" width="18.7109375" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="60" max="60" width="19.7109375" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="61" max="61" width="19.42578125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="62" max="62" width="22.5703125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="63" max="64" width="9.140625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="65" max="65" width="12.5703125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="66" max="66" width="12.28515625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="67" max="67" width="14.28515625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="68" max="68" width="13" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="69" max="69" width="19.5703125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="70" max="70" width="22.85546875" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="71" max="71" width="17.28515625" style="12" customWidth="1" outlineLevel="1"/>
-    <col min="72" max="72" width="15.5703125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="73" max="73" width="14.28515625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="74" max="74" width="13.7109375" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="75" max="75" width="14.5703125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="76" max="76" width="11.85546875" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="77" max="77" width="11.5703125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="78" max="78" width="13.85546875" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="79" max="79" width="10.85546875" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="80" max="80" width="22.42578125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="81" max="81" width="31.5703125" style="10" customWidth="1"/>
-    <col min="82" max="82" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="13.5703125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="84" max="84" width="9.140625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="85" max="85" width="10.5703125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="86" max="86" width="14" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="87" max="87" width="22.42578125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="88" max="88" width="27.28515625" style="10" customWidth="1"/>
-    <col min="89" max="89" width="14.42578125" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="90" max="90" width="17.140625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="91" max="91" width="27.28515625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="92" max="92" width="31.140625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="93" max="93" width="51.7109375" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="94" max="94" width="9.140625" style="3" customWidth="1" outlineLevel="1"/>
-    <col min="95" max="95" width="17.140625" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="96" max="96" width="15.5703125" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="97" max="97" width="24" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="98" max="98" width="24.7109375" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="99" max="99" width="19.7109375" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="100" max="100" width="21.42578125" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="101" max="101" width="15.85546875" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="102" max="102" width="155.5703125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="103" max="103" width="41.28515625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="104" max="104" width="12.140625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="105" max="105" width="27.42578125" style="2" customWidth="1"/>
-    <col min="106" max="106" width="15.5703125" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="107" max="107" width="19.85546875" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="108" max="108" width="17" style="12" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="16.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="15.140625" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="111" max="111" width="25.28515625" style="17" customWidth="1" outlineLevel="1"/>
-    <col min="112" max="112" width="22.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="18.42578125" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="114" max="114" width="17.28515625" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="115" max="115" width="16.140625" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="116" max="116" width="14" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="117" max="117" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="12" style="12" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="14.5703125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="120" max="120" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="16.85546875" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="123" max="123" width="13.28515625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="124" max="124" width="37.28515625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="125" max="125" width="10.5703125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="126" max="126" width="15.140625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="127" max="127" width="25.7109375" style="10" customWidth="1"/>
-    <col min="128" max="128" width="22.7109375" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="129" max="129" width="29" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="130" max="130" width="23.7109375" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="131" max="131" width="16.42578125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="132" max="132" width="23.5703125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="133" max="133" width="20.5703125" style="24" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="27.42578125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="135" max="135" width="25.85546875" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="136" max="136" width="12" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="137" max="137" width="15.5703125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="138" max="138" width="20.7109375" style="21" customWidth="1" outlineLevel="1"/>
-    <col min="139" max="139" width="24.5703125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="140" max="140" width="14.5703125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="141" max="141" width="19" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="142" max="144" width="21.140625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="145" max="145" width="26.5703125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="146" max="146" width="20.5703125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="147" max="147" width="26.28515625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="148" max="148" width="23.85546875" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="149" max="149" width="22.7109375" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="150" max="150" width="32.5703125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="151" max="151" width="15.140625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="152" max="152" width="13.28515625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="153" max="153" width="28" style="12" customWidth="1" outlineLevel="1"/>
-    <col min="154" max="154" width="28.7109375" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="155" max="155" width="18.5703125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="156" max="156" width="11.7109375" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="157" max="157" width="11.42578125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="158" max="158" width="17.5703125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="159" max="159" width="16.28515625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="160" max="160" width="16.140625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="161" max="161" width="14.5703125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="162" max="162" width="16.5703125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="163" max="163" width="9.140625" style="1" customWidth="1"/>
-    <col min="164" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="9.42578125" collapsed="true" outlineLevel="1"/>
+    <col min="2" max="2" customWidth="true" style="1" width="13.0" collapsed="true" outlineLevel="1"/>
+    <col min="3" max="3" customWidth="true" style="1" width="15.140625" collapsed="true" outlineLevel="1"/>
+    <col min="4" max="4" customWidth="true" style="1" width="19.0" collapsed="true" outlineLevel="1"/>
+    <col min="5" max="5" customWidth="true" style="1" width="20.140625" collapsed="true" outlineLevel="1"/>
+    <col min="6" max="6" customWidth="true" style="2" width="13.28515625" collapsed="true" outlineLevel="1"/>
+    <col min="7" max="7" customWidth="true" style="1" width="18.0" collapsed="true" outlineLevel="1"/>
+    <col min="8" max="8" customWidth="true" style="1" width="70.28515625" collapsed="true" outlineLevel="1"/>
+    <col min="9" max="9" customWidth="true" style="1" width="18.0" collapsed="true" outlineLevel="1"/>
+    <col min="10" max="10" customWidth="true" style="1" width="70.140625" collapsed="true" outlineLevel="1"/>
+    <col min="11" max="11" customWidth="true" style="1" width="18.0" collapsed="true" outlineLevel="1"/>
+    <col min="12" max="12" customWidth="true" style="1" width="67.7109375" collapsed="true" outlineLevel="1"/>
+    <col min="13" max="13" customWidth="true" style="1" width="18.0" collapsed="true" outlineLevel="1"/>
+    <col min="14" max="14" customWidth="true" style="1" width="70.28515625" collapsed="true" outlineLevel="1"/>
+    <col min="15" max="15" customWidth="true" style="1" width="18.0" collapsed="true" outlineLevel="1"/>
+    <col min="16" max="16" customWidth="true" style="1" width="67.7109375" collapsed="true" outlineLevel="1"/>
+    <col min="17" max="17" customWidth="true" style="1" width="12.7109375" collapsed="true" outlineLevel="1"/>
+    <col min="18" max="18" customWidth="true" style="1" width="39.140625" collapsed="true" outlineLevel="1"/>
+    <col min="19" max="19" customWidth="true" style="1" width="42.42578125" collapsed="true" outlineLevel="1"/>
+    <col min="20" max="20" customWidth="true" style="1" width="35.42578125" collapsed="true" outlineLevel="1"/>
+    <col min="21" max="21" customWidth="true" style="1" width="56.85546875" collapsed="true" outlineLevel="1"/>
+    <col min="22" max="22" customWidth="true" style="1" width="35.42578125" collapsed="true" outlineLevel="1"/>
+    <col min="23" max="23" customWidth="true" style="1" width="31.7109375" collapsed="true" outlineLevel="1"/>
+    <col min="24" max="24" customWidth="true" style="1" width="19.42578125" collapsed="true" outlineLevel="1"/>
+    <col min="25" max="25" customWidth="true" style="1" width="18.5703125" collapsed="true" outlineLevel="1"/>
+    <col min="26" max="26" customWidth="true" style="1" width="22.42578125" collapsed="true" outlineLevel="1"/>
+    <col min="27" max="27" customWidth="true" style="12" width="14.7109375" collapsed="true" outlineLevel="1"/>
+    <col min="28" max="28" customWidth="true" style="12" width="12.7109375" collapsed="true" outlineLevel="1"/>
+    <col min="29" max="29" customWidth="true" style="2" width="10.5703125" collapsed="true" outlineLevel="1"/>
+    <col min="30" max="30" customWidth="true" style="1" width="19.140625" collapsed="true" outlineLevel="1"/>
+    <col min="31" max="31" customWidth="true" style="12" width="11.85546875" collapsed="true" outlineLevel="1"/>
+    <col min="32" max="32" customWidth="true" style="12" width="12.7109375" collapsed="true" outlineLevel="1"/>
+    <col min="33" max="33" customWidth="true" style="2" width="14.5703125" collapsed="true" outlineLevel="1"/>
+    <col min="34" max="34" customWidth="true" style="1" width="19.140625" collapsed="true" outlineLevel="1"/>
+    <col min="35" max="35" customWidth="true" style="1" width="17.42578125" collapsed="true" outlineLevel="1"/>
+    <col min="36" max="37" customWidth="true" style="10" width="21.0" collapsed="true" outlineLevel="1"/>
+    <col min="38" max="38" customWidth="true" style="1" width="16.140625" collapsed="true" outlineLevel="1"/>
+    <col min="39" max="39" customWidth="true" style="10" width="27.42578125" collapsed="true" outlineLevel="1"/>
+    <col min="40" max="40" customWidth="true" style="1" width="9.140625" collapsed="true" outlineLevel="1"/>
+    <col min="41" max="41" customWidth="true" style="1" width="10.7109375" collapsed="true" outlineLevel="1"/>
+    <col min="42" max="42" customWidth="true" style="1" width="39.42578125" collapsed="true" outlineLevel="1"/>
+    <col min="43" max="43" customWidth="true" style="1" width="20.140625" collapsed="true" outlineLevel="1"/>
+    <col min="44" max="44" customWidth="true" style="1" width="40.0" collapsed="true" outlineLevel="1"/>
+    <col min="45" max="45" customWidth="true" style="1" width="12.5703125" collapsed="true" outlineLevel="1"/>
+    <col min="46" max="46" customWidth="true" style="1" width="21.140625" collapsed="true" outlineLevel="1"/>
+    <col min="47" max="48" customWidth="true" style="1" width="9.140625" collapsed="true" outlineLevel="1"/>
+    <col min="49" max="49" customWidth="true" style="1" width="16.28515625" collapsed="true" outlineLevel="1"/>
+    <col min="50" max="50" customWidth="true" style="1" width="14.140625" collapsed="true" outlineLevel="1"/>
+    <col min="51" max="51" customWidth="true" style="1" width="12.28515625" collapsed="true" outlineLevel="1"/>
+    <col min="52" max="52" customWidth="true" style="1" width="51.7109375" collapsed="true" outlineLevel="1"/>
+    <col min="53" max="53" customWidth="true" style="1" width="40.7109375" collapsed="true" outlineLevel="1"/>
+    <col min="54" max="54" customWidth="true" style="1" width="32.5703125" collapsed="true" outlineLevel="1"/>
+    <col min="55" max="55" customWidth="true" style="1" width="10.140625" collapsed="true" outlineLevel="1"/>
+    <col min="56" max="56" customWidth="true" style="1" width="15.28515625" collapsed="true" outlineLevel="1"/>
+    <col min="57" max="57" customWidth="true" style="1" width="14.42578125" collapsed="true" outlineLevel="1"/>
+    <col min="58" max="58" customWidth="true" style="1" width="19.0" collapsed="true" outlineLevel="1"/>
+    <col min="59" max="59" customWidth="true" style="1" width="18.7109375" collapsed="true" outlineLevel="1"/>
+    <col min="60" max="60" customWidth="true" style="1" width="19.7109375" collapsed="true" outlineLevel="1"/>
+    <col min="61" max="61" customWidth="true" style="1" width="19.42578125" collapsed="true" outlineLevel="1"/>
+    <col min="62" max="62" customWidth="true" style="1" width="22.5703125" collapsed="true" outlineLevel="1"/>
+    <col min="63" max="64" customWidth="true" style="1" width="9.140625" collapsed="true" outlineLevel="1"/>
+    <col min="65" max="65" customWidth="true" style="1" width="12.5703125" collapsed="true" outlineLevel="1"/>
+    <col min="66" max="66" customWidth="true" style="1" width="12.28515625" collapsed="true" outlineLevel="1"/>
+    <col min="67" max="67" customWidth="true" style="1" width="14.28515625" collapsed="true" outlineLevel="1"/>
+    <col min="68" max="68" customWidth="true" style="1" width="13.0" collapsed="true" outlineLevel="1"/>
+    <col min="69" max="69" customWidth="true" style="1" width="19.5703125" collapsed="true" outlineLevel="1"/>
+    <col min="70" max="70" customWidth="true" style="1" width="22.85546875" collapsed="true" outlineLevel="1"/>
+    <col min="71" max="71" customWidth="true" style="12" width="17.28515625" collapsed="true" outlineLevel="1"/>
+    <col min="72" max="72" customWidth="true" style="1" width="15.5703125" collapsed="true" outlineLevel="1"/>
+    <col min="73" max="73" customWidth="true" style="1" width="14.28515625" collapsed="true" outlineLevel="1"/>
+    <col min="74" max="74" customWidth="true" style="1" width="13.7109375" collapsed="true" outlineLevel="1"/>
+    <col min="75" max="75" customWidth="true" style="1" width="14.5703125" collapsed="true" outlineLevel="1"/>
+    <col min="76" max="76" customWidth="true" style="1" width="11.85546875" collapsed="true" outlineLevel="1"/>
+    <col min="77" max="77" customWidth="true" style="1" width="11.5703125" collapsed="true" outlineLevel="1"/>
+    <col min="78" max="78" customWidth="true" style="1" width="13.85546875" collapsed="true" outlineLevel="1"/>
+    <col min="79" max="79" customWidth="true" style="1" width="10.85546875" collapsed="true" outlineLevel="1"/>
+    <col min="80" max="80" customWidth="true" style="1" width="22.42578125" collapsed="true" outlineLevel="1"/>
+    <col min="81" max="81" customWidth="true" style="10" width="31.5703125" collapsed="true"/>
+    <col min="82" max="82" bestFit="true" customWidth="true" style="1" width="21.5703125" collapsed="true"/>
+    <col min="83" max="83" customWidth="true" style="1" width="13.5703125" collapsed="true" outlineLevel="1"/>
+    <col min="84" max="84" customWidth="true" style="1" width="9.140625" collapsed="true" outlineLevel="1"/>
+    <col min="85" max="85" customWidth="true" style="1" width="10.5703125" collapsed="true" outlineLevel="1"/>
+    <col min="86" max="86" customWidth="true" style="1" width="14.0" collapsed="true" outlineLevel="1"/>
+    <col min="87" max="87" customWidth="true" style="1" width="22.42578125" collapsed="true" outlineLevel="1"/>
+    <col min="88" max="88" customWidth="true" style="10" width="27.28515625" collapsed="true"/>
+    <col min="89" max="89" customWidth="true" style="2" width="14.42578125" collapsed="true" outlineLevel="1"/>
+    <col min="90" max="90" customWidth="true" style="1" width="17.140625" collapsed="true" outlineLevel="1"/>
+    <col min="91" max="91" customWidth="true" style="1" width="27.28515625" collapsed="true" outlineLevel="1"/>
+    <col min="92" max="92" customWidth="true" style="1" width="31.140625" collapsed="true" outlineLevel="1"/>
+    <col min="93" max="93" customWidth="true" style="1" width="51.7109375" collapsed="true" outlineLevel="1"/>
+    <col min="94" max="94" customWidth="true" style="3" width="9.140625" collapsed="true" outlineLevel="1"/>
+    <col min="95" max="95" customWidth="true" style="4" width="17.140625" collapsed="true" outlineLevel="1"/>
+    <col min="96" max="96" customWidth="true" style="4" width="15.5703125" collapsed="true" outlineLevel="1"/>
+    <col min="97" max="97" customWidth="true" style="1" width="24.0" collapsed="true" outlineLevel="1"/>
+    <col min="98" max="98" customWidth="true" style="1" width="24.7109375" collapsed="true" outlineLevel="1"/>
+    <col min="99" max="99" customWidth="true" style="4" width="19.7109375" collapsed="true" outlineLevel="1"/>
+    <col min="100" max="100" customWidth="true" style="4" width="21.42578125" collapsed="true" outlineLevel="1"/>
+    <col min="101" max="101" customWidth="true" style="1" width="15.85546875" collapsed="true" outlineLevel="1"/>
+    <col min="102" max="102" customWidth="true" style="1" width="155.5703125" collapsed="true" outlineLevel="1"/>
+    <col min="103" max="103" customWidth="true" style="1" width="41.28515625" collapsed="true" outlineLevel="1"/>
+    <col min="104" max="104" customWidth="true" style="1" width="12.140625" collapsed="true" outlineLevel="1"/>
+    <col min="105" max="105" customWidth="true" style="2" width="27.42578125" collapsed="true"/>
+    <col min="106" max="106" customWidth="true" style="2" width="15.5703125" collapsed="true" outlineLevel="1"/>
+    <col min="107" max="107" customWidth="true" style="2" width="19.85546875" collapsed="true" outlineLevel="1"/>
+    <col min="108" max="108" bestFit="true" customWidth="true" style="12" width="17.0" collapsed="true"/>
+    <col min="109" max="109" bestFit="true" customWidth="true" style="12" width="16.140625" collapsed="true"/>
+    <col min="110" max="110" customWidth="true" style="2" width="15.140625" collapsed="true" outlineLevel="1"/>
+    <col min="111" max="111" customWidth="true" style="17" width="25.28515625" collapsed="true" outlineLevel="1"/>
+    <col min="112" max="112" bestFit="true" customWidth="true" style="17" width="22.5703125" collapsed="true"/>
+    <col min="113" max="113" customWidth="true" style="2" width="18.42578125" collapsed="true" outlineLevel="1"/>
+    <col min="114" max="114" customWidth="true" style="2" width="17.28515625" collapsed="true" outlineLevel="1"/>
+    <col min="115" max="115" customWidth="true" style="2" width="16.140625" collapsed="true" outlineLevel="1"/>
+    <col min="116" max="116" customWidth="true" style="1" width="14.0" collapsed="true" outlineLevel="1"/>
+    <col min="117" max="117" bestFit="true" customWidth="true" style="1" width="15.85546875" collapsed="true"/>
+    <col min="118" max="118" bestFit="true" customWidth="true" style="12" width="12.0" collapsed="true"/>
+    <col min="119" max="119" customWidth="true" style="1" width="14.5703125" collapsed="true" outlineLevel="1"/>
+    <col min="120" max="120" bestFit="true" customWidth="true" style="1" width="9.140625" collapsed="true"/>
+    <col min="121" max="121" bestFit="true" customWidth="true" style="1" width="11.0" collapsed="true"/>
+    <col min="122" max="122" customWidth="true" style="1" width="16.85546875" collapsed="true" outlineLevel="1"/>
+    <col min="123" max="123" customWidth="true" style="1" width="13.28515625" collapsed="true" outlineLevel="1"/>
+    <col min="124" max="124" customWidth="true" style="1" width="37.28515625" collapsed="true" outlineLevel="1"/>
+    <col min="125" max="125" customWidth="true" style="1" width="10.5703125" collapsed="true" outlineLevel="1"/>
+    <col min="126" max="126" customWidth="true" style="1" width="15.140625" collapsed="true" outlineLevel="1"/>
+    <col min="127" max="127" customWidth="true" style="10" width="25.7109375" collapsed="true"/>
+    <col min="128" max="128" customWidth="true" style="1" width="22.7109375" collapsed="true" outlineLevel="1"/>
+    <col min="129" max="129" customWidth="true" style="1" width="29.0" collapsed="true" outlineLevel="1"/>
+    <col min="130" max="130" customWidth="true" style="1" width="23.7109375" collapsed="true" outlineLevel="1"/>
+    <col min="131" max="131" customWidth="true" style="1" width="16.42578125" collapsed="true" outlineLevel="1"/>
+    <col min="132" max="132" customWidth="true" style="1" width="23.5703125" collapsed="true" outlineLevel="1"/>
+    <col min="133" max="133" bestFit="true" customWidth="true" style="24" width="20.5703125" collapsed="true"/>
+    <col min="134" max="134" customWidth="true" style="1" width="27.42578125" collapsed="true" outlineLevel="1"/>
+    <col min="135" max="135" customWidth="true" style="1" width="25.85546875" collapsed="true" outlineLevel="1"/>
+    <col min="136" max="136" customWidth="true" style="1" width="12.0" collapsed="true" outlineLevel="1"/>
+    <col min="137" max="137" customWidth="true" style="1" width="15.5703125" collapsed="true" outlineLevel="1"/>
+    <col min="138" max="138" customWidth="true" style="21" width="20.7109375" collapsed="true" outlineLevel="1"/>
+    <col min="139" max="139" customWidth="true" style="1" width="24.5703125" collapsed="true" outlineLevel="1"/>
+    <col min="140" max="140" customWidth="true" style="1" width="14.5703125" collapsed="true" outlineLevel="1"/>
+    <col min="141" max="141" customWidth="true" style="1" width="19.0" collapsed="true" outlineLevel="1"/>
+    <col min="142" max="144" customWidth="true" style="1" width="21.140625" collapsed="true" outlineLevel="1"/>
+    <col min="145" max="145" customWidth="true" style="1" width="26.5703125" collapsed="true" outlineLevel="1"/>
+    <col min="146" max="146" customWidth="true" style="1" width="20.5703125" collapsed="true" outlineLevel="1"/>
+    <col min="147" max="147" customWidth="true" style="1" width="26.28515625" collapsed="true" outlineLevel="1"/>
+    <col min="148" max="148" customWidth="true" style="1" width="23.85546875" collapsed="true" outlineLevel="1"/>
+    <col min="149" max="149" customWidth="true" style="1" width="22.7109375" collapsed="true" outlineLevel="1"/>
+    <col min="150" max="150" customWidth="true" style="1" width="32.5703125" collapsed="true" outlineLevel="1"/>
+    <col min="151" max="151" customWidth="true" style="1" width="15.140625" collapsed="true" outlineLevel="1"/>
+    <col min="152" max="152" customWidth="true" style="1" width="13.28515625" collapsed="true" outlineLevel="1"/>
+    <col min="153" max="153" customWidth="true" style="12" width="28.0" collapsed="true" outlineLevel="1"/>
+    <col min="154" max="154" customWidth="true" style="1" width="28.7109375" collapsed="true" outlineLevel="1"/>
+    <col min="155" max="155" customWidth="true" style="1" width="18.5703125" collapsed="true" outlineLevel="1"/>
+    <col min="156" max="156" customWidth="true" style="1" width="11.7109375" collapsed="true" outlineLevel="1"/>
+    <col min="157" max="157" customWidth="true" style="1" width="11.42578125" collapsed="true" outlineLevel="1"/>
+    <col min="158" max="158" customWidth="true" style="1" width="17.5703125" collapsed="true" outlineLevel="1"/>
+    <col min="159" max="159" customWidth="true" style="1" width="16.28515625" collapsed="true" outlineLevel="1"/>
+    <col min="160" max="160" customWidth="true" style="1" width="16.140625" collapsed="true" outlineLevel="1"/>
+    <col min="161" max="161" customWidth="true" style="1" width="14.5703125" collapsed="true" outlineLevel="1"/>
+    <col min="162" max="162" customWidth="true" style="1" width="16.5703125" collapsed="true" outlineLevel="1"/>
+    <col min="163" max="163" customWidth="true" style="1" width="9.140625" collapsed="true"/>
+    <col min="164" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:162" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1870,8 +1926,8 @@
       <c r="E2" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="F2" s="2">
-        <v>2100004065</v>
+      <c r="F2" s="2" t="s">
+        <v>235</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>196</v>
